--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -484,6 +484,30 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -517,15 +541,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -533,21 +548,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -871,22 +871,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -894,20 +894,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44369</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
+        <v>44371</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -927,7 +927,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -936,14 +936,16 @@
       <c r="C6" s="8">
         <v>8290</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
       <c r="E6" s="2">
         <f>D6*C6</f>
-        <v>0</v>
+        <v>82900</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
@@ -957,7 +959,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
@@ -973,7 +975,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -989,23 +991,21 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="8">
         <v>10070</v>
       </c>
-      <c r="D10" s="3">
-        <v>10</v>
-      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>100700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1023,7 +1023,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="8" t="s">
         <v>6</v>
       </c>
@@ -1039,7 +1039,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1055,7 +1055,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
@@ -1069,7 +1069,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -1085,7 +1085,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="8" t="s">
         <v>6</v>
       </c>
@@ -1099,7 +1099,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -1115,7 +1115,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="8" t="s">
         <v>6</v>
       </c>
@@ -1129,7 +1129,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1145,7 +1145,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="8" t="s">
         <v>6</v>
       </c>
@@ -1159,7 +1159,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -1175,7 +1175,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="8" t="s">
         <v>6</v>
       </c>
@@ -1189,7 +1189,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -1207,7 +1207,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="8" t="s">
         <v>23</v>
       </c>
@@ -1223,7 +1223,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -1239,7 +1239,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="27"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="8" t="s">
         <v>6</v>
       </c>
@@ -1250,7 +1250,7 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="8" t="s">
         <v>26</v>
       </c>
@@ -1264,51 +1264,45 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="12">
         <f>SUM(D6:D27)</f>
         <v>50</v>
       </c>
       <c r="E28" s="13">
         <f>SUM(E6:E27)</f>
-        <v>608400</v>
+        <v>590600</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="7">
         <f>E28-E29</f>
-        <v>608400</v>
+        <v>590600</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1320,6 +1314,12 @@
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Daily " sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
   <si>
     <t>Total=</t>
   </si>
@@ -103,6 +104,9 @@
   </si>
   <si>
     <t>Narzo 20</t>
+  </si>
+  <si>
+    <t>C25s(4/64)</t>
   </si>
 </sst>
 </file>
@@ -493,9 +497,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -540,6 +541,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -854,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -871,22 +875,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -894,20 +898,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44371</v>
+        <v>44374</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -936,42 +940,463 @@
       <c r="C6" s="8">
         <v>8290</v>
       </c>
-      <c r="D6" s="3">
-        <v>10</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="2">
         <f>D6*C6</f>
-        <v>82900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="8" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C7" s="8">
         <v>8290</v>
       </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" ref="E7:E24" si="0">D7*C7</f>
+        <v>82900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8">
+        <v>10070</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8">
+        <v>10070</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8">
+        <v>10920</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>109200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8">
+        <v>10920</v>
+      </c>
+      <c r="D11" s="3">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>218400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="8">
+        <v>11940</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8">
+        <v>11940</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="8">
+        <v>12750</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="8">
+        <v>12750</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="8">
+        <v>13210</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="8">
+        <v>13210</v>
+      </c>
+      <c r="D17" s="3">
+        <v>60</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>792600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="8">
+        <v>13640</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="8">
+        <v>13640</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="8">
+        <v>20640</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="8">
+        <v>20640</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="8">
+        <v>25130</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="32"/>
+      <c r="B23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="8">
+        <v>25130</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="8">
+        <v>25130</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="12">
+        <f>SUM(D6:D24)</f>
+        <v>100</v>
+      </c>
+      <c r="E25" s="13">
+        <f>SUM(E6:E24)</f>
+        <v>1203100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="7">
+        <f>E25-E26</f>
+        <v>1203100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A16:A17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9">
+        <f ca="1">TODAY()</f>
+        <v>44374</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>8290</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2">
+        <f>D6*C6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
+      <c r="B7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="8">
+        <v>8290</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2">
-        <f t="shared" ref="E7" si="0">D7*C7</f>
+        <f t="shared" ref="E7:E29" si="0">D7*C7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="8">
         <v>8290</v>
       </c>
-      <c r="D8" s="3">
-        <v>10</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="2">
-        <f t="shared" ref="E8:E27" si="1">D8*C8</f>
-        <v>82900</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -986,12 +1411,12 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
@@ -1000,7 +1425,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1014,28 +1439,24 @@
       <c r="C11" s="8">
         <v>10920</v>
       </c>
-      <c r="D11" s="3">
-        <v>10</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="2">
-        <f t="shared" si="1"/>
-        <v>109200</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="8">
         <v>10920</v>
       </c>
-      <c r="D12" s="3">
-        <v>10</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="2">
-        <f t="shared" si="1"/>
-        <v>109200</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1050,12 +1471,12 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
@@ -1064,7 +1485,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1080,12 +1501,12 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="8" t="s">
         <v>6</v>
       </c>
@@ -1094,7 +1515,7 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1110,12 +1531,12 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="8" t="s">
         <v>6</v>
       </c>
@@ -1124,204 +1545,230 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C19" s="8">
-        <v>13640</v>
+        <v>13210</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="8">
-        <v>13640</v>
+        <v>13210</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="8">
-        <v>14180</v>
+        <v>13640</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="8">
-        <v>14180</v>
+        <v>13640</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C23" s="8">
-        <v>20640</v>
-      </c>
-      <c r="D23" s="3">
-        <v>5</v>
-      </c>
+        <v>14180</v>
+      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="2">
-        <f t="shared" si="1"/>
-        <v>103200</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="8" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C24" s="8">
-        <v>20640</v>
-      </c>
-      <c r="D24" s="3">
-        <v>5</v>
-      </c>
+        <v>14180</v>
+      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="2">
-        <f t="shared" si="1"/>
-        <v>103200</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="8">
-        <v>25130</v>
+        <v>20640</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
       <c r="B26" s="8" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C26" s="8">
-        <v>25130</v>
+        <v>20640</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
+      <c r="A27" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="B27" s="8" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C27" s="8">
         <v>25130</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="12">
-        <f>SUM(D6:D27)</f>
-        <v>50</v>
-      </c>
-      <c r="E28" s="13">
-        <f>SUM(E6:E27)</f>
-        <v>590600</v>
-      </c>
+      <c r="A28" s="32"/>
+      <c r="B28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8">
+        <v>25130</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="8">
+        <v>25130</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="12">
+        <f>SUM(D6:D29)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="13">
+        <f>SUM(E6:E29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="7">
-        <f>E28-E29</f>
-        <v>590600</v>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="7">
+        <f>E30-E31</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -488,18 +488,63 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -507,51 +552,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -861,7 +861,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -875,22 +875,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -898,20 +898,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44374</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+        <v>44376</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -931,7 +931,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -947,7 +947,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -963,7 +963,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -979,21 +979,23 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8">
         <v>10070</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100700</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1002,16 +1004,14 @@
       <c r="C10" s="8">
         <v>10920</v>
       </c>
-      <c r="D10" s="3">
-        <v>10</v>
-      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>109200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1019,15 +1019,15 @@
         <v>10920</v>
       </c>
       <c r="D11" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>218400</v>
+        <v>163800</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1043,7 +1043,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1057,7 +1057,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1073,7 +1073,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1087,7 +1087,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1103,7 +1103,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1111,15 +1111,15 @@
         <v>13210</v>
       </c>
       <c r="D17" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>792600</v>
+        <v>660500</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1135,7 +1135,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1149,7 +1149,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1165,21 +1165,23 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="8">
         <v>20640</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>10</v>
+      </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>206400</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1188,14 +1190,16 @@
       <c r="C22" s="8">
         <v>25130</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>125650</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="8" t="s">
         <v>6</v>
       </c>
@@ -1206,7 +1210,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
@@ -1220,45 +1224,52 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="12">
         <f>SUM(D6:D24)</f>
         <v>100</v>
       </c>
       <c r="E25" s="13">
         <f>SUM(E6:E24)</f>
-        <v>1203100</v>
+        <v>1339950</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="7">
         <f>E25-E26</f>
-        <v>1203100</v>
+        <v>1339950</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1268,13 +1279,6 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1300,22 +1304,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1323,20 +1327,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44374</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+        <v>44376</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1356,7 +1360,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1372,7 +1376,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
@@ -1386,7 +1390,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
@@ -1400,7 +1404,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1416,7 +1420,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
@@ -1430,7 +1434,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1446,7 +1450,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="8" t="s">
         <v>6</v>
       </c>
@@ -1460,7 +1464,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="25" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1476,7 +1480,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
@@ -1490,7 +1494,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -1506,7 +1510,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="8" t="s">
         <v>6</v>
       </c>
@@ -1520,7 +1524,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -1536,7 +1540,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="8" t="s">
         <v>6</v>
       </c>
@@ -1550,7 +1554,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1566,7 +1570,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="8" t="s">
         <v>6</v>
       </c>
@@ -1580,7 +1584,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -1596,7 +1600,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="8" t="s">
         <v>6</v>
       </c>
@@ -1610,7 +1614,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -1626,7 +1630,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="8" t="s">
         <v>6</v>
       </c>
@@ -1640,7 +1644,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -1656,7 +1660,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
@@ -1670,7 +1674,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -1686,7 +1690,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="8" t="s">
         <v>6</v>
       </c>
@@ -1697,7 +1701,7 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="8" t="s">
         <v>26</v>
       </c>
@@ -1711,11 +1715,11 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
+      <c r="A30" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="12">
         <f>SUM(D6:D29)</f>
         <v>0</v>
@@ -1726,23 +1730,23 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="7">
         <f>E30-E31</f>
         <v>0</v>
@@ -1750,12 +1754,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A6:A8"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
@@ -1768,6 +1766,12 @@
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A6:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -488,6 +488,27 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -521,12 +542,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,21 +552,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -875,22 +875,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -898,20 +898,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44376</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
+        <v>44377</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -931,7 +931,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -947,23 +947,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="8">
         <v>8290</v>
       </c>
-      <c r="D7" s="3">
-        <v>10</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="2">
         <f t="shared" ref="E7:E24" si="0">D7*C7</f>
-        <v>82900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -979,23 +977,21 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8">
         <v>10070</v>
       </c>
-      <c r="D9" s="3">
-        <v>10</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>100700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1011,23 +1007,21 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="8">
         <v>10920</v>
       </c>
-      <c r="D11" s="3">
-        <v>15</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>163800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1043,7 +1037,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1057,7 +1051,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1073,7 +1067,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1087,23 +1081,25 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C16" s="8">
         <v>13210</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>30</v>
+      </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>396300</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1111,15 +1107,15 @@
         <v>13210</v>
       </c>
       <c r="D17" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>660500</v>
+        <v>396300</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1135,7 +1131,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1149,7 +1145,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1165,23 +1161,21 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="8">
         <v>20640</v>
       </c>
-      <c r="D21" s="3">
-        <v>10</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>206400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1190,16 +1184,14 @@
       <c r="C22" s="8">
         <v>25130</v>
       </c>
-      <c r="D22" s="3">
-        <v>5</v>
-      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>125650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="8" t="s">
         <v>6</v>
       </c>
@@ -1210,7 +1202,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
@@ -1224,52 +1216,45 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="12">
         <f>SUM(D6:D24)</f>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E25" s="13">
         <f>SUM(E6:E24)</f>
-        <v>1339950</v>
+        <v>792600</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="6">
-        <v>0</v>
+        <v>156350</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="7">
         <f>E25-E26</f>
-        <v>1339950</v>
+        <v>636250</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1279,6 +1264,13 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1304,22 +1296,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1327,20 +1319,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44376</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
+        <v>44377</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1360,7 +1352,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1376,7 +1368,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
@@ -1390,7 +1382,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
@@ -1404,7 +1396,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1420,7 +1412,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
@@ -1434,7 +1426,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1450,7 +1442,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="8" t="s">
         <v>6</v>
       </c>
@@ -1464,7 +1456,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1480,7 +1472,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
@@ -1494,7 +1486,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -1510,7 +1502,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="8" t="s">
         <v>6</v>
       </c>
@@ -1524,7 +1516,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -1540,7 +1532,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="8" t="s">
         <v>6</v>
       </c>
@@ -1554,7 +1546,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1570,7 +1562,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="8" t="s">
         <v>6</v>
       </c>
@@ -1584,7 +1576,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -1600,7 +1592,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="8" t="s">
         <v>6</v>
       </c>
@@ -1614,7 +1606,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -1630,7 +1622,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="8" t="s">
         <v>6</v>
       </c>
@@ -1644,7 +1636,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -1660,7 +1652,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="26"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
@@ -1674,7 +1666,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -1690,7 +1682,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="8" t="s">
         <v>6</v>
       </c>
@@ -1701,7 +1693,7 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="26"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="8" t="s">
         <v>26</v>
       </c>
@@ -1715,11 +1707,11 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="12">
         <f>SUM(D6:D29)</f>
         <v>0</v>
@@ -1730,23 +1722,23 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
       <c r="E31" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="7">
         <f>E30-E31</f>
         <v>0</v>
@@ -1754,6 +1746,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
@@ -1766,12 +1764,6 @@
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A6:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -898,7 +898,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44377</v>
+        <v>44382</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="34"/>
@@ -984,10 +984,12 @@
       <c r="C9" s="8">
         <v>10070</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100700</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1000,10 +1002,12 @@
       <c r="C10" s="8">
         <v>10920</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>10</v>
+      </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>109200</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1014,10 +1018,12 @@
       <c r="C11" s="8">
         <v>10920</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>109200</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1060,10 +1066,12 @@
       <c r="C14" s="8">
         <v>12750</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>20</v>
+      </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>255000</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1091,11 +1099,11 @@
         <v>13210</v>
       </c>
       <c r="D16" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>396300</v>
+        <v>264200</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1223,11 +1231,11 @@
       <c r="C25" s="20"/>
       <c r="D25" s="12">
         <f>SUM(D6:D24)</f>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E25" s="13">
         <f>SUM(E6:E24)</f>
-        <v>792600</v>
+        <v>1234600</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1238,7 +1246,7 @@
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="6">
-        <v>156350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1250,7 +1258,7 @@
       <c r="D27" s="15"/>
       <c r="E27" s="7">
         <f>E25-E26</f>
-        <v>636250</v>
+        <v>1234600</v>
       </c>
     </row>
   </sheetData>
@@ -1319,7 +1327,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44377</v>
+        <v>44382</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="34"/>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="30">
   <si>
     <t>Total=</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>C25s(4/64)</t>
+  </si>
+  <si>
+    <t>C25s(4/128)</t>
   </si>
 </sst>
 </file>
@@ -858,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -898,7 +901,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44382</v>
+        <v>44384</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="34"/>
@@ -956,7 +959,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:E24" si="0">D7*C7</f>
+        <f t="shared" ref="E7:E25" si="0">D7*C7</f>
         <v>0</v>
       </c>
     </row>
@@ -984,12 +987,10 @@
       <c r="C9" s="8">
         <v>10070</v>
       </c>
-      <c r="D9" s="3">
-        <v>10</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>100700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1002,12 +1003,10 @@
       <c r="C10" s="8">
         <v>10920</v>
       </c>
-      <c r="D10" s="3">
-        <v>10</v>
-      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>109200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1066,12 +1065,10 @@
       <c r="C14" s="8">
         <v>12750</v>
       </c>
-      <c r="D14" s="3">
-        <v>20</v>
-      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>255000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1082,28 +1079,28 @@
       <c r="C15" s="8">
         <v>12750</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>15</v>
+      </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>191250</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="8">
-        <v>13210</v>
-      </c>
-      <c r="D16" s="3">
-        <v>20</v>
-      </c>
+        <v>13640</v>
+      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>264200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1112,30 +1109,30 @@
         <v>6</v>
       </c>
       <c r="C17" s="8">
-        <v>13210</v>
-      </c>
-      <c r="D17" s="3">
-        <v>30</v>
-      </c>
+        <v>13640</v>
+      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>396300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="8">
-        <v>13640</v>
-      </c>
-      <c r="D18" s="3"/>
+        <v>13210</v>
+      </c>
+      <c r="D18" s="3">
+        <v>20</v>
+      </c>
       <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D18*C18</f>
+        <v>264200</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1144,53 +1141,57 @@
         <v>6</v>
       </c>
       <c r="C19" s="8">
-        <v>13640</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>13210</v>
+      </c>
+      <c r="D19" s="3">
+        <v>20</v>
+      </c>
       <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D19*C19</f>
+        <v>264200</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="8">
+        <v>14110</v>
+      </c>
+      <c r="D20" s="3">
         <v>5</v>
       </c>
-      <c r="C20" s="8">
-        <v>20640</v>
-      </c>
-      <c r="D20" s="3"/>
       <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="E20:E21" si="1">D20*C20</f>
+        <v>70550</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="8" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C21" s="8">
-        <v>20640</v>
+        <v>14110</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="8">
-        <v>25130</v>
+        <v>20640</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="2">
@@ -1199,20 +1200,25 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="8" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C23" s="8">
-        <v>25130</v>
+        <v>20640</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
+      <c r="A24" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="B24" s="8" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C24" s="8">
         <v>25130</v>
@@ -1224,61 +1230,76 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="12">
-        <f>SUM(D6:D24)</f>
-        <v>100</v>
-      </c>
-      <c r="E25" s="13">
-        <f>SUM(E6:E24)</f>
-        <v>1234600</v>
+      <c r="A25" s="32"/>
+      <c r="B25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="8">
+        <v>25130</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="12">
+        <f>SUM(D6:D25)</f>
+        <v>70</v>
+      </c>
+      <c r="E26" s="13">
+        <f>SUM(E6:E25)</f>
+        <v>899400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="6">
+        <v>70100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="7">
-        <f>E25-E26</f>
-        <v>1234600</v>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="7">
+        <f>E26-E27</f>
+        <v>829300</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1327,7 +1348,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44382</v>
+        <v>44384</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="34"/>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -13,14 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="Daily " sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Total=</t>
   </si>
@@ -55,9 +54,6 @@
     <t>C25(4/128)</t>
   </si>
   <si>
-    <t>C17</t>
-  </si>
-  <si>
     <t>Realme 8</t>
   </si>
   <si>
@@ -88,9 +84,6 @@
     <t>Grey</t>
   </si>
   <si>
-    <t>Green</t>
-  </si>
-  <si>
     <t>Silver</t>
   </si>
   <si>
@@ -98,12 +91,6 @@
   </si>
   <si>
     <t>Advance</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>Narzo 20</t>
   </si>
   <si>
     <t>C25s(4/64)</t>
@@ -864,7 +851,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="L26" sqref="L25:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -888,7 +875,7 @@
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -897,11 +884,11 @@
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44384</v>
+        <v>44389</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="34"/>
@@ -909,7 +896,7 @@
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -921,16 +908,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -943,10 +930,12 @@
       <c r="C6" s="8">
         <v>8290</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
       <c r="E6" s="2">
         <f>D6*C6</f>
-        <v>0</v>
+        <v>82900</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -957,10 +946,12 @@
       <c r="C7" s="8">
         <v>8290</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
       <c r="E7" s="2">
         <f t="shared" ref="E7:E25" si="0">D7*C7</f>
-        <v>0</v>
+        <v>82900</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -987,10 +978,12 @@
       <c r="C9" s="8">
         <v>10070</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>30</v>
+      </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>302100</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1003,10 +996,12 @@
       <c r="C10" s="8">
         <v>10920</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>30</v>
+      </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>327600</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1018,11 +1013,11 @@
         <v>10920</v>
       </c>
       <c r="D11" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>109200</v>
+        <v>436800</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1060,7 +1055,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="8">
         <v>12750</v>
@@ -1079,12 +1074,10 @@
       <c r="C15" s="8">
         <v>12750</v>
       </c>
-      <c r="D15" s="3">
-        <v>15</v>
-      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>191250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1092,7 +1085,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="8">
         <v>13640</v>
@@ -1119,10 +1112,10 @@
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="8">
         <v>13210</v>
@@ -1144,19 +1137,19 @@
         <v>13210</v>
       </c>
       <c r="D19" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2">
         <f>D19*C19</f>
-        <v>264200</v>
+        <v>396300</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="8">
         <v>14110</v>
@@ -1185,7 +1178,7 @@
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>5</v>
@@ -1193,29 +1186,33 @@
       <c r="C22" s="8">
         <v>20640</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3">
+        <v>10</v>
+      </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>206400</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="8">
         <v>20640</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3">
+        <v>10</v>
+      </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>206400</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>5</v>
@@ -1223,10 +1220,12 @@
       <c r="C24" s="8">
         <v>25130</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3">
+        <v>5</v>
+      </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>125650</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1251,34 +1250,34 @@
       <c r="C26" s="20"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="E26" s="13">
         <f>SUM(E6:E25)</f>
-        <v>899400</v>
+        <v>2501800</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="6">
-        <v>70100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="7">
         <f>E26-E27</f>
-        <v>829300</v>
+        <v>2501800</v>
       </c>
     </row>
   </sheetData>
@@ -1304,496 +1303,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="9">
-        <f ca="1">TODAY()</f>
-        <v>44384</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-    </row>
-    <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8">
-        <v>8290</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2">
-        <f>D6*C6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="8">
-        <v>8290</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2">
-        <f t="shared" ref="E7:E29" si="0">D7*C7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8">
-        <v>8290</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8">
-        <v>10070</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8">
-        <v>10070</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8">
-        <v>10920</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="8">
-        <v>10920</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="8">
-        <v>12870</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="8">
-        <v>12870</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="8">
-        <v>11940</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="8">
-        <v>11940</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="8">
-        <v>12750</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="8">
-        <v>12750</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="8">
-        <v>13210</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="8">
-        <v>13210</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="8">
-        <v>13640</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="8">
-        <v>13640</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="8">
-        <v>14180</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="8">
-        <v>14180</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="8">
-        <v>20640</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="8">
-        <v>20640</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="8">
-        <v>25130</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
-      <c r="B28" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="8">
-        <v>25130</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="8">
-        <v>25130</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="12">
-        <f>SUM(D6:D29)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="13">
-        <f>SUM(E6:E29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="7">
-        <f>E30-E31</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:D31"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -478,18 +478,63 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -497,51 +542,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -850,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L26" sqref="L25:L26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N14:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -865,22 +865,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -888,20 +888,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44389</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+        <v>44390</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -921,7 +921,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -939,7 +939,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -955,7 +955,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -971,7 +971,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -987,7 +987,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1005,7 +1005,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1021,7 +1021,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1037,7 +1037,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1051,7 +1051,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1067,7 +1067,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1081,7 +1081,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1097,7 +1097,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1111,7 +1111,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1129,7 +1129,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1145,7 +1145,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1163,7 +1163,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
@@ -1177,7 +1177,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1195,7 +1195,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="8" t="s">
         <v>21</v>
       </c>
@@ -1211,7 +1211,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1229,7 +1229,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1243,11 +1243,11 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
         <v>200</v>
@@ -1258,23 +1258,23 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="7">
         <f>E26-E27</f>
         <v>2501800</v>
@@ -1282,6 +1282,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1291,14 +1299,6 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Total=</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>C25s(4/128)</t>
+  </si>
+  <si>
+    <t>Yellow</t>
   </si>
 </sst>
 </file>
@@ -478,6 +481,27 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -511,12 +535,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -527,21 +545,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -850,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N14:N15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -865,22 +868,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -888,20 +891,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44390</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
+        <v>44392</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -921,7 +924,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -931,15 +934,15 @@
         <v>8290</v>
       </c>
       <c r="D6" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2">
         <f>D6*C6</f>
-        <v>82900</v>
+        <v>165800</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -947,15 +950,15 @@
         <v>8290</v>
       </c>
       <c r="D7" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ref="E7:E25" si="0">D7*C7</f>
-        <v>82900</v>
+        <v>165800</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -971,7 +974,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -979,15 +982,15 @@
         <v>10070</v>
       </c>
       <c r="D9" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>302100</v>
+        <v>604200</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -997,15 +1000,15 @@
         <v>10920</v>
       </c>
       <c r="D10" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>327600</v>
+        <v>1092000</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1013,15 +1016,15 @@
         <v>10920</v>
       </c>
       <c r="D11" s="3">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>436800</v>
+        <v>1092000</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1037,7 +1040,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1051,7 +1054,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1067,7 +1070,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1081,7 +1084,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1097,7 +1100,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1111,7 +1114,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1121,31 +1124,29 @@
         <v>13210</v>
       </c>
       <c r="D18" s="3">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="E18" s="2">
         <f>D18*C18</f>
-        <v>264200</v>
+        <v>1849400</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="8">
         <v>13210</v>
       </c>
-      <c r="D19" s="3">
-        <v>30</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="2">
         <f>D19*C19</f>
-        <v>396300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1155,29 +1156,31 @@
         <v>14110</v>
       </c>
       <c r="D20" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" ref="E20:E21" si="1">D20*C20</f>
-        <v>70550</v>
+        <v>211650</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="8">
         <v>14110</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>20</v>
+      </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>282200</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1187,15 +1190,15 @@
         <v>20640</v>
       </c>
       <c r="D22" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>206400</v>
+        <v>103200</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="8" t="s">
         <v>21</v>
       </c>
@@ -1203,19 +1206,19 @@
         <v>20640</v>
       </c>
       <c r="D23" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>206400</v>
+        <v>309600</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C24" s="8">
         <v>25130</v>
@@ -1229,67 +1232,61 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="8">
         <v>25130</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3">
+        <v>5</v>
+      </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
+        <v>125650</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>200</v>
+        <v>505</v>
       </c>
       <c r="E26" s="13">
         <f>SUM(E6:E25)</f>
-        <v>2501800</v>
+        <v>6127150</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="6">
-        <v>0</v>
+        <v>82900</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="7">
         <f>E26-E27</f>
-        <v>2501800</v>
+        <v>6044250</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1299,6 +1296,14 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -481,18 +481,63 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,51 +545,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -868,22 +868,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -891,20 +891,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44392</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+        <v>44394</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -924,7 +924,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -933,32 +933,28 @@
       <c r="C6" s="8">
         <v>8290</v>
       </c>
-      <c r="D6" s="3">
-        <v>20</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="2">
         <f>D6*C6</f>
-        <v>165800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="8">
         <v>8290</v>
       </c>
-      <c r="D7" s="3">
-        <v>20</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="2">
         <f t="shared" ref="E7:E25" si="0">D7*C7</f>
-        <v>165800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -974,7 +970,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -982,15 +978,15 @@
         <v>10070</v>
       </c>
       <c r="D9" s="3">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>604200</v>
+        <v>100700</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -999,16 +995,14 @@
       <c r="C10" s="8">
         <v>10920</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
-      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>1092000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1016,15 +1010,15 @@
         <v>10920</v>
       </c>
       <c r="D11" s="3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>1092000</v>
+        <v>327600</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1040,7 +1034,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1054,7 +1048,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1070,7 +1064,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1084,7 +1078,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1100,7 +1094,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1114,7 +1108,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1124,15 +1118,15 @@
         <v>13210</v>
       </c>
       <c r="D18" s="3">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="E18" s="2">
         <f>D18*C18</f>
-        <v>1849400</v>
+        <v>2642000</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +1140,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1155,32 +1149,28 @@
       <c r="C20" s="8">
         <v>14110</v>
       </c>
-      <c r="D20" s="3">
-        <v>15</v>
-      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="2">
         <f t="shared" ref="E20:E21" si="1">D20*C20</f>
-        <v>211650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="8">
         <v>14110</v>
       </c>
-      <c r="D21" s="3">
-        <v>20</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>282200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1190,31 +1180,29 @@
         <v>20640</v>
       </c>
       <c r="D22" s="3">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>103200</v>
+        <v>825600</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="8">
         <v>20640</v>
       </c>
-      <c r="D23" s="3">
-        <v>15</v>
-      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>309600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1223,70 +1211,72 @@
       <c r="C24" s="8">
         <v>25130</v>
       </c>
-      <c r="D24" s="3">
-        <v>5</v>
-      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>125650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="8">
         <v>25130</v>
       </c>
-      <c r="D25" s="3">
-        <v>5</v>
-      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>125650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
+      <c r="A26" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>505</v>
+        <v>280</v>
       </c>
       <c r="E26" s="13">
         <f>SUM(E6:E25)</f>
-        <v>6127150</v>
+        <v>3895900</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="6">
-        <v>82900</v>
-      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="7">
         <f>E26-E27</f>
-        <v>6044250</v>
+        <v>3895900</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1296,14 +1286,6 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -481,6 +481,27 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -514,12 +535,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,21 +545,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -868,22 +868,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -891,20 +891,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44394</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
+        <v>44395</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -924,7 +924,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -933,28 +933,32 @@
       <c r="C6" s="8">
         <v>8290</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>20</v>
+      </c>
       <c r="E6" s="2">
         <f>D6*C6</f>
-        <v>0</v>
+        <v>165800</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="8">
         <v>8290</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>20</v>
+      </c>
       <c r="E7" s="2">
         <f t="shared" ref="E7:E25" si="0">D7*C7</f>
-        <v>0</v>
+        <v>165800</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -970,23 +974,21 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8">
         <v>10070</v>
       </c>
-      <c r="D9" s="3">
-        <v>10</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>100700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -995,14 +997,16 @@
       <c r="C10" s="8">
         <v>10920</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>40</v>
+      </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>436800</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1010,15 +1014,15 @@
         <v>10920</v>
       </c>
       <c r="D11" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>327600</v>
+        <v>655200</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1034,7 +1038,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1048,7 +1052,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1064,7 +1068,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1078,7 +1082,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1094,7 +1098,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1108,7 +1112,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1118,29 +1122,31 @@
         <v>13210</v>
       </c>
       <c r="D18" s="3">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2">
         <f>D18*C18</f>
-        <v>2642000</v>
+        <v>528400</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="8">
         <v>13210</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <v>50</v>
+      </c>
       <c r="E19" s="2">
         <f>D19*C19</f>
-        <v>0</v>
+        <v>660500</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1156,7 +1162,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
@@ -1170,7 +1176,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1180,29 +1186,31 @@
         <v>20640</v>
       </c>
       <c r="D22" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>825600</v>
+        <v>412800</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="8">
         <v>20640</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3">
+        <v>40</v>
+      </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>825600</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1218,65 +1226,61 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" s="8">
         <v>25130</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3">
+        <v>10</v>
+      </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
+        <v>251300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="E26" s="13">
         <f>SUM(E6:E25)</f>
-        <v>3895900</v>
+        <v>4102200</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="6"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="6">
+        <v>230620</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="7">
         <f>E26-E27</f>
-        <v>3895900</v>
+        <v>3871580</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1286,6 +1290,14 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -891,7 +891,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="34"/>
@@ -933,12 +933,10 @@
       <c r="C6" s="8">
         <v>8290</v>
       </c>
-      <c r="D6" s="3">
-        <v>20</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="2">
         <f>D6*C6</f>
-        <v>165800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -949,12 +947,10 @@
       <c r="C7" s="8">
         <v>8290</v>
       </c>
-      <c r="D7" s="3">
-        <v>20</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="2">
         <f t="shared" ref="E7:E25" si="0">D7*C7</f>
-        <v>165800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -997,12 +993,10 @@
       <c r="C10" s="8">
         <v>10920</v>
       </c>
-      <c r="D10" s="3">
-        <v>40</v>
-      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>436800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1013,12 +1007,10 @@
       <c r="C11" s="8">
         <v>10920</v>
       </c>
-      <c r="D11" s="3">
-        <v>60</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>655200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1121,12 +1113,10 @@
       <c r="C18" s="8">
         <v>13210</v>
       </c>
-      <c r="D18" s="3">
-        <v>40</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="2">
         <f>D18*C18</f>
-        <v>528400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1138,11 +1128,11 @@
         <v>13210</v>
       </c>
       <c r="D19" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E19" s="2">
         <f>D19*C19</f>
-        <v>660500</v>
+        <v>1321000</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1185,12 +1175,10 @@
       <c r="C22" s="8">
         <v>20640</v>
       </c>
-      <c r="D22" s="3">
-        <v>20</v>
-      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>412800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1201,12 +1189,10 @@
       <c r="C23" s="8">
         <v>20640</v>
       </c>
-      <c r="D23" s="3">
-        <v>40</v>
-      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>825600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1233,12 +1219,10 @@
       <c r="C25" s="8">
         <v>25130</v>
       </c>
-      <c r="D25" s="3">
-        <v>10</v>
-      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>251300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1249,11 +1233,11 @@
       <c r="C26" s="20"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E26" s="13">
         <f>SUM(E6:E25)</f>
-        <v>4102200</v>
+        <v>1321000</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1264,7 +1248,7 @@
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="6">
-        <v>230620</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1276,7 +1260,7 @@
       <c r="D28" s="15"/>
       <c r="E28" s="7">
         <f>E26-E27</f>
-        <v>3871580</v>
+        <v>1321000</v>
       </c>
     </row>
   </sheetData>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -481,18 +481,63 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,51 +545,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -868,22 +868,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -891,20 +891,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44396</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+        <v>44402</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -924,7 +924,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -940,7 +940,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -954,7 +954,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -970,7 +970,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -984,7 +984,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1000,7 +1000,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1014,7 +1014,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1030,7 +1030,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1044,7 +1044,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1060,7 +1060,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1074,7 +1074,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1090,7 +1090,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1104,7 +1104,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1120,7 +1120,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1128,15 +1128,15 @@
         <v>13210</v>
       </c>
       <c r="D19" s="3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2">
         <f>D19*C19</f>
-        <v>1321000</v>
+        <v>396300</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1152,21 +1152,23 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="8">
         <v>14110</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>30</v>
+      </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>423300</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1175,14 +1177,16 @@
       <c r="C22" s="8">
         <v>20640</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3">
+        <v>10</v>
+      </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>206400</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="8" t="s">
         <v>21</v>
       </c>
@@ -1196,7 +1200,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1212,7 +1216,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="8" t="s">
         <v>5</v>
       </c>
@@ -1226,45 +1230,53 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
+      <c r="A26" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E26" s="13">
         <f>SUM(E6:E25)</f>
-        <v>1321000</v>
+        <v>1026000</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="7">
         <f>E26-E27</f>
-        <v>1321000</v>
+        <v>1026000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1274,14 +1286,6 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -481,6 +481,27 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -514,12 +535,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,21 +545,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -868,22 +868,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -891,20 +891,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44402</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
+        <v>44404</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -924,7 +924,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -940,7 +940,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -954,7 +954,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -970,7 +970,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -984,7 +984,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1000,7 +1000,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1014,7 +1014,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1030,7 +1030,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1044,7 +1044,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1060,7 +1060,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1074,7 +1074,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1090,7 +1090,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1104,7 +1104,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1120,23 +1120,21 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="8">
         <v>13210</v>
       </c>
-      <c r="D19" s="3">
-        <v>30</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="2">
         <f>D19*C19</f>
-        <v>396300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1152,7 +1150,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
@@ -1160,15 +1158,15 @@
         <v>14110</v>
       </c>
       <c r="D21" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>423300</v>
+        <v>282200</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1177,16 +1175,14 @@
       <c r="C22" s="8">
         <v>20640</v>
       </c>
-      <c r="D22" s="3">
-        <v>10</v>
-      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>206400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="8" t="s">
         <v>21</v>
       </c>
@@ -1200,7 +1196,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1216,7 +1212,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="8" t="s">
         <v>5</v>
       </c>
@@ -1230,53 +1226,45 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E26" s="13">
         <f>SUM(E6:E25)</f>
-        <v>1026000</v>
+        <v>282200</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="7">
         <f>E26-E27</f>
-        <v>1026000</v>
+        <v>282200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1286,6 +1274,14 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -481,18 +481,63 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,51 +545,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -854,7 +854,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -868,22 +868,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -891,20 +891,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44404</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+        <v>44405</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -924,7 +924,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -940,7 +940,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -954,7 +954,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -970,7 +970,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -984,7 +984,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1000,7 +1000,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1014,7 +1014,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1030,7 +1030,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1044,7 +1044,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1060,7 +1060,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1074,7 +1074,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1090,7 +1090,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1104,7 +1104,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1113,14 +1113,16 @@
       <c r="C18" s="8">
         <v>13210</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3">
+        <v>10</v>
+      </c>
       <c r="E18" s="2">
         <f>D18*C18</f>
-        <v>0</v>
+        <v>132100</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1134,7 +1136,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1143,30 +1145,30 @@
       <c r="C20" s="8">
         <v>14110</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3">
+        <v>50</v>
+      </c>
       <c r="E20" s="2">
         <f t="shared" ref="E20:E21" si="1">D20*C20</f>
-        <v>0</v>
+        <v>705500</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="8">
         <v>14110</v>
       </c>
-      <c r="D21" s="3">
-        <v>20</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>282200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1182,7 +1184,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="8" t="s">
         <v>21</v>
       </c>
@@ -1196,7 +1198,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1212,7 +1214,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="8" t="s">
         <v>5</v>
       </c>
@@ -1226,45 +1228,53 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
+      <c r="A26" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E26" s="13">
         <f>SUM(E6:E25)</f>
-        <v>282200</v>
+        <v>837600</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="7">
         <f>E26-E27</f>
-        <v>282200</v>
+        <v>837600</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1274,14 +1284,6 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -481,6 +481,27 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -514,12 +535,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,21 +545,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -868,22 +868,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -891,20 +891,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44405</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
+        <v>44406</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -924,7 +924,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -940,21 +940,23 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="8">
         <v>8290</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
       <c r="E7" s="2">
         <f t="shared" ref="E7:E25" si="0">D7*C7</f>
-        <v>0</v>
+        <v>82900</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -970,21 +972,23 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8">
         <v>10070</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100700</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1000,7 +1004,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1014,7 +1018,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1030,7 +1034,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1044,7 +1048,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1060,7 +1064,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1074,7 +1078,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1090,7 +1094,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1104,7 +1108,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1113,16 +1117,14 @@
       <c r="C18" s="8">
         <v>13210</v>
       </c>
-      <c r="D18" s="3">
-        <v>10</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="2">
         <f>D18*C18</f>
-        <v>132100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1136,7 +1138,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1145,16 +1147,14 @@
       <c r="C20" s="8">
         <v>14110</v>
       </c>
-      <c r="D20" s="3">
-        <v>50</v>
-      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="2">
         <f t="shared" ref="E20:E21" si="1">D20*C20</f>
-        <v>705500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
@@ -1168,7 +1168,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1184,7 +1184,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="8" t="s">
         <v>21</v>
       </c>
@@ -1198,7 +1198,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1214,7 +1214,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="8" t="s">
         <v>5</v>
       </c>
@@ -1228,53 +1228,45 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E26" s="13">
         <f>SUM(E6:E25)</f>
-        <v>837600</v>
+        <v>183600</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="7">
         <f>E26-E27</f>
-        <v>837600</v>
+        <v>183600</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1284,6 +1276,14 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -481,18 +481,63 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,51 +545,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -868,22 +868,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -891,20 +891,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44406</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+        <v>44410</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -924,7 +924,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -940,23 +940,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="8">
         <v>8290</v>
       </c>
-      <c r="D7" s="3">
-        <v>10</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="2">
         <f t="shared" ref="E7:E25" si="0">D7*C7</f>
-        <v>82900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -972,23 +970,21 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8">
         <v>10070</v>
       </c>
-      <c r="D9" s="3">
-        <v>10</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>100700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1004,7 +1000,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1018,7 +1014,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1034,7 +1030,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1048,7 +1044,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1064,7 +1060,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1078,7 +1074,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1094,7 +1090,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1108,7 +1104,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1117,14 +1113,16 @@
       <c r="C18" s="8">
         <v>13210</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3">
+        <v>30</v>
+      </c>
       <c r="E18" s="2">
         <f>D18*C18</f>
-        <v>0</v>
+        <v>396300</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1138,7 +1136,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1147,14 +1145,16 @@
       <c r="C20" s="8">
         <v>14110</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3">
+        <v>10</v>
+      </c>
       <c r="E20" s="2">
         <f t="shared" ref="E20:E21" si="1">D20*C20</f>
-        <v>0</v>
+        <v>141100</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
@@ -1168,7 +1168,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1177,28 +1177,32 @@
       <c r="C22" s="8">
         <v>20640</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3">
+        <v>10</v>
+      </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>206400</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="8">
         <v>20640</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3">
+        <v>30</v>
+      </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>619200</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1214,59 +1218,69 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="8">
         <v>25130</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3">
+        <v>10</v>
+      </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>251300</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
+      <c r="A26" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="E26" s="13">
         <f>SUM(E6:E25)</f>
-        <v>183600</v>
+        <v>1614300</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="7">
         <f>E26-E27</f>
-        <v>183600</v>
+        <v>1614300</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1276,14 +1290,6 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Daily " sheetId="3" r:id="rId1"/>
+    <sheet name="Advance" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>Total=</t>
   </si>
@@ -100,6 +101,24 @@
   </si>
   <si>
     <t>Yellow</t>
+  </si>
+  <si>
+    <t>Realme Advance Calculation</t>
+  </si>
+  <si>
+    <t>Before Advance</t>
+  </si>
+  <si>
+    <t>Today Deposit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Advance will remain</t>
+  </si>
+  <si>
+    <t>Today Product Buy</t>
   </si>
 </sst>
 </file>
@@ -109,7 +128,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -161,8 +180,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,8 +208,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -434,11 +467,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -545,6 +645,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -891,7 +1057,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44410</v>
+        <v>44413</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="29"/>
@@ -1007,10 +1173,12 @@
       <c r="C11" s="8">
         <v>10920</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>50</v>
+      </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>546000</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1113,12 +1281,10 @@
       <c r="C18" s="8">
         <v>13210</v>
       </c>
-      <c r="D18" s="3">
-        <v>30</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="2">
         <f>D18*C18</f>
-        <v>396300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1145,12 +1311,10 @@
       <c r="C20" s="8">
         <v>14110</v>
       </c>
-      <c r="D20" s="3">
-        <v>10</v>
-      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="2">
         <f t="shared" ref="E20:E21" si="1">D20*C20</f>
-        <v>141100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1177,12 +1341,10 @@
       <c r="C22" s="8">
         <v>20640</v>
       </c>
-      <c r="D22" s="3">
-        <v>10</v>
-      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>206400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1193,12 +1355,10 @@
       <c r="C23" s="8">
         <v>20640</v>
       </c>
-      <c r="D23" s="3">
-        <v>30</v>
-      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>619200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1225,12 +1385,10 @@
       <c r="C25" s="8">
         <v>25130</v>
       </c>
-      <c r="D25" s="3">
-        <v>10</v>
-      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>251300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1241,11 +1399,11 @@
       <c r="C26" s="35"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E26" s="13">
         <f>SUM(E6:E25)</f>
-        <v>1614300</v>
+        <v>546000</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1256,7 +1414,7 @@
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="6">
-        <v>0</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1268,7 +1426,7 @@
       <c r="D28" s="32"/>
       <c r="E28" s="7">
         <f>E26-E27</f>
-        <v>1614300</v>
+        <v>530800</v>
       </c>
     </row>
   </sheetData>
@@ -1294,4 +1452,660 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="1" customWidth="1"/>
+    <col min="7" max="20" width="9.33203125" style="48"/>
+    <col min="21" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+    </row>
+    <row r="2" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="47"/>
+      <c r="B2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="40">
+        <f ca="1">TODAY()</f>
+        <v>44413</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+    </row>
+    <row r="3" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="47"/>
+      <c r="B3" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+    </row>
+    <row r="4" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="47"/>
+      <c r="B4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="55">
+        <v>15200</v>
+      </c>
+      <c r="G4" s="49"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+    </row>
+    <row r="5" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="47"/>
+      <c r="B5" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="55">
+        <v>1473200</v>
+      </c>
+      <c r="G5" s="49"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+    </row>
+    <row r="6" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="47"/>
+      <c r="B6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38">
+        <f>F4+F5</f>
+        <v>1488400</v>
+      </c>
+      <c r="G6" s="49"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+    </row>
+    <row r="7" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="47"/>
+      <c r="B7" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="55">
+        <v>546000</v>
+      </c>
+      <c r="G7" s="49"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+    </row>
+    <row r="8" spans="1:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
+      <c r="B8" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46">
+        <f>F6-F7</f>
+        <v>942400</v>
+      </c>
+      <c r="G8" s="49"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+    </row>
+    <row r="9" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+    </row>
+    <row r="10" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+    </row>
+    <row r="11" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+    </row>
+    <row r="12" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+    </row>
+    <row r="13" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+    </row>
+    <row r="14" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+    </row>
+    <row r="15" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+    </row>
+    <row r="16" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+    </row>
+    <row r="17" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+    </row>
+    <row r="18" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+    </row>
+    <row r="19" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+    </row>
+    <row r="20" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+    </row>
+    <row r="21" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+    </row>
+    <row r="22" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+    </row>
+    <row r="23" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+    </row>
+    <row r="24" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+    </row>
+    <row r="25" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+    </row>
+    <row r="26" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+    </row>
+    <row r="27" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+    </row>
+    <row r="28" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+    </row>
+    <row r="29" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+    </row>
+    <row r="30" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+    </row>
+    <row r="31" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="48" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>Total=</t>
   </si>
@@ -47,12 +47,6 @@
   </si>
   <si>
     <t>Narzo 30A</t>
-  </si>
-  <si>
-    <t>C25(4/64)</t>
-  </si>
-  <si>
-    <t>C25(4/128)</t>
   </si>
   <si>
     <t>Realme 8</t>
@@ -581,6 +575,51 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -614,12 +653,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -632,34 +665,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,24 +698,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -696,21 +705,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1034,63 +1028,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="A2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44413</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
+        <v>44416</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
+      <c r="A4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1106,7 +1100,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1115,12 +1109,12 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:E25" si="0">D7*C7</f>
+        <f t="shared" ref="E7:E21" si="0">D7*C7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1136,7 +1130,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1150,7 +1144,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1166,7 +1160,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1174,15 +1168,15 @@
         <v>10920</v>
       </c>
       <c r="D11" s="3">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>546000</v>
+        <v>939120</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1198,7 +1192,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1212,242 +1206,180 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>9</v>
+      <c r="A14" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="8">
-        <v>12750</v>
+        <v>13210</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2">
+        <f>D14*C14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="8">
+        <v>13210</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2">
+        <f>D15*C15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="8">
+        <v>14110</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2">
+        <f t="shared" ref="E16:E17" si="1">D16*C16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="25"/>
+      <c r="B17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="8">
+        <v>14110</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="8">
+        <v>20640</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="8">
-        <v>12750</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2">
+    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="8">
+        <v>20640</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="8">
-        <v>13640</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2">
+      <c r="B20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="8">
+        <v>25130</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="8">
-        <v>13640</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="2">
+    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="40"/>
+      <c r="B21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="8">
+        <v>25130</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="8">
-        <v>13210</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2">
-        <f>D18*C18</f>
+    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="8">
-        <v>13210</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2">
-        <f>D19*C19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="8">
-        <v>14110</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="2">
-        <f t="shared" ref="E20:E21" si="1">D20*C20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="8">
-        <v>14110</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="8">
-        <v>20640</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="12">
+        <f>SUM(D6:D21)</f>
+        <v>86</v>
+      </c>
+      <c r="E22" s="13">
+        <f>SUM(E6:E21)</f>
+        <v>939120</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="8">
-        <v>20640</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="8">
-        <v>25130</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
-      <c r="B25" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="8">
-        <v>25130</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="12">
-        <f>SUM(D6:D25)</f>
-        <v>50</v>
-      </c>
-      <c r="E26" s="13">
-        <f>SUM(E6:E25)</f>
-        <v>546000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="6">
-        <v>15200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="7">
-        <f>E26-E27</f>
-        <v>530800</v>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="6">
+        <v>942400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="7">
+        <f>E22-E23</f>
+        <v>-3280</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A28:D28"/>
+  <mergeCells count="15">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A24:D24"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1470,640 +1402,640 @@
     <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" style="1" customWidth="1"/>
-    <col min="7" max="20" width="9.33203125" style="48"/>
+    <col min="7" max="20" width="9.33203125" style="19"/>
     <col min="21" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="40">
+      <c r="A2" s="18"/>
+      <c r="B2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="16">
         <f ca="1">TODAY()</f>
-        <v>44413</v>
-      </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
+        <v>44416</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
-      <c r="B3" s="50" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+    </row>
+    <row r="4" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
+      <c r="B4" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="21">
+        <v>15200</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+    </row>
+    <row r="5" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-    </row>
-    <row r="4" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="56" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="21">
+        <v>1473200</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+    </row>
+    <row r="6" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="55">
-        <v>15200</v>
-      </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-    </row>
-    <row r="5" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
-      <c r="B5" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="55">
-        <v>1473200</v>
-      </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-    </row>
-    <row r="6" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="14">
         <f>F4+F5</f>
         <v>1488400</v>
       </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
     </row>
     <row r="7" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
-      <c r="B7" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55">
+      <c r="A7" s="18"/>
+      <c r="B7" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="21">
         <v>546000</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
     </row>
     <row r="8" spans="1:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46">
+      <c r="A8" s="18"/>
+      <c r="B8" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="17">
         <f>F6-F7</f>
         <v>942400</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-    </row>
-    <row r="9" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-    </row>
-    <row r="10" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-    </row>
-    <row r="11" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-    </row>
-    <row r="12" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-    </row>
-    <row r="13" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-    </row>
-    <row r="14" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-    </row>
-    <row r="15" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-    </row>
-    <row r="16" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-    </row>
-    <row r="17" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-    </row>
-    <row r="18" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-    </row>
-    <row r="19" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-    </row>
-    <row r="20" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-    </row>
-    <row r="21" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-    </row>
-    <row r="22" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-    </row>
-    <row r="23" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-    </row>
-    <row r="24" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-    </row>
-    <row r="25" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-    </row>
-    <row r="26" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-    </row>
-    <row r="27" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-    </row>
-    <row r="28" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-    </row>
-    <row r="29" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-    </row>
-    <row r="30" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-    </row>
-    <row r="31" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="48" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+    </row>
+    <row r="9" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+    </row>
+    <row r="10" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+    </row>
+    <row r="11" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+    </row>
+    <row r="12" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+    </row>
+    <row r="13" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+    </row>
+    <row r="14" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+    </row>
+    <row r="15" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+    </row>
+    <row r="16" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+    </row>
+    <row r="17" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+    </row>
+    <row r="18" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+    </row>
+    <row r="19" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+    </row>
+    <row r="20" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+    </row>
+    <row r="21" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+    </row>
+    <row r="22" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+    </row>
+    <row r="23" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+    </row>
+    <row r="24" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+    </row>
+    <row r="25" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+    </row>
+    <row r="26" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+    </row>
+    <row r="27" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+    </row>
+    <row r="28" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+    </row>
+    <row r="29" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+    </row>
+    <row r="30" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+    </row>
+    <row r="31" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -599,18 +599,63 @@
     <xf numFmtId="1" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -620,49 +665,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -687,24 +705,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1028,22 +1028,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1051,20 +1051,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44416</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
+        <v>44417</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1084,7 +1084,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1100,7 +1100,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1114,7 +1114,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1130,7 +1130,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1144,7 +1144,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1153,30 +1153,30 @@
       <c r="C10" s="8">
         <v>10920</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>70</v>
+      </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>764400</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="8">
         <v>10920</v>
       </c>
-      <c r="D11" s="3">
-        <v>86</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>939120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="33" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1192,7 +1192,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1206,7 +1206,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="33" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1222,7 +1222,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1236,7 +1236,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="33" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1252,7 +1252,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1266,7 +1266,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1275,14 +1275,16 @@
       <c r="C18" s="8">
         <v>20640</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3">
+        <v>10</v>
+      </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>206400</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
@@ -1296,7 +1298,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1312,66 +1314,61 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="8">
         <v>25130</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>5</v>
+      </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
+        <v>125650</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="41" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="12">
         <f>SUM(D6:D21)</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="13">
         <f>SUM(E6:E21)</f>
-        <v>939120</v>
+        <v>1096450</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="6">
-        <v>942400</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="7">
         <f>E22-E23</f>
-        <v>-3280</v>
+        <v>1093700</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C3:E3"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
@@ -1380,6 +1377,13 @@
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1433,11 +1437,11 @@
       </c>
       <c r="C2" s="16">
         <f ca="1">TODAY()</f>
-        <v>44416</v>
-      </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
+        <v>44417</v>
+      </c>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="20"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
@@ -1453,13 +1457,13 @@
     </row>
     <row r="3" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="57"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
       <c r="G3" s="20"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -1475,12 +1479,12 @@
     </row>
     <row r="4" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="21">
         <v>15200</v>
       </c>
@@ -1499,12 +1503,12 @@
     </row>
     <row r="5" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="21">
         <v>1473200</v>
       </c>
@@ -1523,12 +1527,12 @@
     </row>
     <row r="6" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="14">
         <f>F4+F5</f>
         <v>1488400</v>
@@ -1548,12 +1552,12 @@
     </row>
     <row r="7" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="21">
         <v>546000</v>
       </c>
@@ -1572,12 +1576,12 @@
     </row>
     <row r="8" spans="1:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="17">
         <f>F6-F7</f>
         <v>942400</v>
@@ -2029,13 +2033,13 @@
     <row r="33" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -599,6 +599,27 @@
     <xf numFmtId="1" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -632,12 +653,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -650,19 +665,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -699,12 +705,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N11:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1028,22 +1028,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1051,20 +1051,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44417</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
+        <v>44419</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1084,7 +1084,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1100,7 +1100,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1114,7 +1114,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1130,7 +1130,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1144,7 +1144,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1153,16 +1153,14 @@
       <c r="C10" s="8">
         <v>10920</v>
       </c>
-      <c r="D10" s="3">
-        <v>70</v>
-      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>764400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1176,7 +1174,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1192,7 +1190,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1206,7 +1204,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1222,7 +1220,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1236,7 +1234,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="24" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1252,7 +1250,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1266,7 +1264,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1275,16 +1273,14 @@
       <c r="C18" s="8">
         <v>20640</v>
       </c>
-      <c r="D18" s="3">
-        <v>10</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>206400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
@@ -1298,7 +1294,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1314,61 +1310,66 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="8">
         <v>25130</v>
       </c>
-      <c r="D21" s="3">
-        <v>5</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>125650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="12">
         <f>SUM(D6:D21)</f>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E22" s="13">
         <f>SUM(E6:E21)</f>
-        <v>1096450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="6">
         <v>2750</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="7">
         <f>E22-E23</f>
-        <v>1093700</v>
+        <v>-2750</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
@@ -1377,13 +1378,6 @@
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1437,11 +1431,11 @@
       </c>
       <c r="C2" s="16">
         <f ca="1">TODAY()</f>
-        <v>44417</v>
-      </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+        <v>44419</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
       <c r="G2" s="20"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
@@ -1457,13 +1451,13 @@
     </row>
     <row r="3" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="20"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -1479,12 +1473,12 @@
     </row>
     <row r="4" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="21">
         <v>15200</v>
       </c>
@@ -1503,12 +1497,12 @@
     </row>
     <row r="5" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="21">
         <v>1473200</v>
       </c>
@@ -1527,12 +1521,12 @@
     </row>
     <row r="6" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="14">
         <f>F4+F5</f>
         <v>1488400</v>
@@ -1552,12 +1546,12 @@
     </row>
     <row r="7" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="21">
         <v>546000</v>
       </c>
@@ -1576,12 +1570,12 @@
     </row>
     <row r="8" spans="1:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="17">
         <f>F6-F7</f>
         <v>942400</v>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N11:N12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K24" sqref="K23:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="C3" s="41"/>
       <c r="D3" s="42"/>
@@ -1153,10 +1153,12 @@
       <c r="C10" s="8">
         <v>10920</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>50</v>
+      </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>546000</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1167,10 +1169,12 @@
       <c r="C11" s="8">
         <v>10920</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>50</v>
+      </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>546000</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1273,10 +1277,12 @@
       <c r="C18" s="8">
         <v>20640</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3">
+        <v>40</v>
+      </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>825600</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1287,10 +1293,12 @@
       <c r="C19" s="8">
         <v>20640</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <v>10</v>
+      </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>206400</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1331,11 +1339,11 @@
       <c r="C22" s="28"/>
       <c r="D22" s="12">
         <f>SUM(D6:D21)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E22" s="13">
         <f>SUM(E6:E21)</f>
-        <v>0</v>
+        <v>2124000</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1345,9 +1353,7 @@
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="6">
-        <v>2750</v>
-      </c>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
@@ -1358,7 +1364,7 @@
       <c r="D24" s="23"/>
       <c r="E24" s="7">
         <f>E22-E23</f>
-        <v>-2750</v>
+        <v>2124000</v>
       </c>
     </row>
   </sheetData>
@@ -1431,7 +1437,7 @@
       </c>
       <c r="C2" s="16">
         <f ca="1">TODAY()</f>
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="D2" s="46"/>
       <c r="E2" s="47"/>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -599,18 +599,63 @@
     <xf numFmtId="1" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -618,51 +663,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K24" sqref="K23:K24"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1028,22 +1028,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1051,20 +1051,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44420</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
+        <v>44424</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1084,7 +1084,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1100,7 +1100,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1114,7 +1114,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1123,28 +1123,32 @@
       <c r="C8" s="8">
         <v>10070</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100700</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8">
         <v>10070</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>60</v>
+      </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>604200</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1153,32 +1157,28 @@
       <c r="C10" s="8">
         <v>10920</v>
       </c>
-      <c r="D10" s="3">
-        <v>50</v>
-      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>546000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="8">
         <v>10920</v>
       </c>
-      <c r="D11" s="3">
-        <v>50</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>546000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="33" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1194,7 +1194,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1208,7 +1208,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="33" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1224,21 +1224,23 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="8">
         <v>13210</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>25</v>
+      </c>
       <c r="E15" s="2">
         <f>D15*C15</f>
-        <v>0</v>
+        <v>330250</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="33" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1254,7 +1256,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1268,7 +1270,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1278,31 +1280,29 @@
         <v>20640</v>
       </c>
       <c r="D18" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>825600</v>
+        <v>619200</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="8">
         <v>20640</v>
       </c>
-      <c r="D19" s="3">
-        <v>10</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>206400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1318,7 +1318,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
@@ -1332,50 +1332,43 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="12">
         <f>SUM(D6:D21)</f>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E22" s="13">
         <f>SUM(E6:E21)</f>
-        <v>2124000</v>
+        <v>1654350</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="7">
         <f>E22-E23</f>
-        <v>2124000</v>
+        <v>1654350</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C3:E3"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
@@ -1384,6 +1377,13 @@
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C2" s="16">
         <f ca="1">TODAY()</f>
-        <v>44420</v>
+        <v>44424</v>
       </c>
       <c r="D2" s="46"/>
       <c r="E2" s="47"/>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="37"/>
@@ -1124,11 +1124,11 @@
         <v>10070</v>
       </c>
       <c r="D8" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>100700</v>
+        <v>50350</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1140,11 +1140,11 @@
         <v>10070</v>
       </c>
       <c r="D9" s="3">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>604200</v>
+        <v>50350</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1232,11 +1232,11 @@
         <v>13210</v>
       </c>
       <c r="D15" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2">
         <f>D15*C15</f>
-        <v>330250</v>
+        <v>264200</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1279,12 +1279,10 @@
       <c r="C18" s="8">
         <v>20640</v>
       </c>
-      <c r="D18" s="3">
-        <v>30</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>619200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1339,11 +1337,11 @@
       <c r="C22" s="43"/>
       <c r="D22" s="12">
         <f>SUM(D6:D21)</f>
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E22" s="13">
         <f>SUM(E6:E21)</f>
-        <v>1654350</v>
+        <v>364900</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1364,7 +1362,7 @@
       <c r="D24" s="40"/>
       <c r="E24" s="7">
         <f>E22-E23</f>
-        <v>1654350</v>
+        <v>364900</v>
       </c>
     </row>
   </sheetData>
@@ -1437,7 +1435,7 @@
       </c>
       <c r="C2" s="16">
         <f ca="1">TODAY()</f>
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="D2" s="46"/>
       <c r="E2" s="47"/>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -599,6 +599,27 @@
     <xf numFmtId="1" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -632,12 +653,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -648,21 +663,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1028,22 +1028,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1051,20 +1051,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44427</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
+        <v>44430</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1084,7 +1084,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1100,7 +1100,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1114,7 +1114,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1124,31 +1124,29 @@
         <v>10070</v>
       </c>
       <c r="D8" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>50350</v>
+        <v>201400</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8">
         <v>10070</v>
       </c>
-      <c r="D9" s="3">
-        <v>5</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>50350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1164,7 +1162,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1178,7 +1176,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1194,7 +1192,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1208,7 +1206,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1217,14 +1215,16 @@
       <c r="C14" s="8">
         <v>13210</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>70</v>
+      </c>
       <c r="E14" s="2">
         <f>D14*C14</f>
-        <v>0</v>
+        <v>924700</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1232,15 +1232,15 @@
         <v>13210</v>
       </c>
       <c r="D15" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2">
         <f>D15*C15</f>
-        <v>264200</v>
+        <v>132100</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="24" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1256,7 +1256,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1270,7 +1270,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1286,7 +1286,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
@@ -1300,7 +1300,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1316,7 +1316,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
@@ -1330,43 +1330,50 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="12">
         <f>SUM(D6:D21)</f>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E22" s="13">
         <f>SUM(E6:E21)</f>
-        <v>364900</v>
+        <v>1258200</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="7">
         <f>E22-E23</f>
-        <v>364900</v>
+        <v>1258200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
@@ -1375,13 +1382,6 @@
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="C2" s="16">
         <f ca="1">TODAY()</f>
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="D2" s="46"/>
       <c r="E2" s="47"/>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Daily " sheetId="3" r:id="rId1"/>
-    <sheet name="Advance" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>Total=</t>
   </si>
@@ -97,22 +98,55 @@
     <t>Yellow</t>
   </si>
   <si>
-    <t>Realme Advance Calculation</t>
-  </si>
-  <si>
-    <t>Before Advance</t>
-  </si>
-  <si>
-    <t>Today Deposit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total </t>
-  </si>
-  <si>
-    <t>Advance will remain</t>
-  </si>
-  <si>
-    <t>Today Product Buy</t>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>7i</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C15/128</t>
+  </si>
+  <si>
+    <t>C15/64</t>
+  </si>
+  <si>
+    <t>C25(4/64)</t>
+  </si>
+  <si>
+    <t>C25(4/128)</t>
+  </si>
+  <si>
+    <t>C20A = .5%</t>
+  </si>
+  <si>
+    <t>Total= 1%</t>
+  </si>
+  <si>
+    <t>Total Incentive</t>
+  </si>
+  <si>
+    <t>1% Value</t>
+  </si>
+  <si>
+    <t>Shop Name</t>
+  </si>
+  <si>
+    <t>Incentive Amount</t>
+  </si>
+  <si>
+    <t>Incentive Percentage</t>
+  </si>
+  <si>
+    <t>Retailer Signature</t>
+  </si>
+  <si>
+    <t>Total Value</t>
+  </si>
+  <si>
+    <t>Total QTY</t>
   </si>
 </sst>
 </file>
@@ -122,7 +156,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -176,11 +210,17 @@
     </font>
     <font>
       <b/>
-      <sz val="17"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -204,12 +244,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -465,41 +505,11 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -510,7 +520,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -523,7 +533,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -532,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -575,28 +585,7 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -665,47 +654,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1013,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1028,22 +1005,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1051,20 +1028,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44430</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
+        <v>44431</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1084,7 +1061,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1100,7 +1077,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1114,7 +1091,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1123,16 +1100,14 @@
       <c r="C8" s="8">
         <v>10070</v>
       </c>
-      <c r="D8" s="3">
-        <v>20</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>201400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +1121,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1162,7 +1137,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1176,7 +1151,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1192,7 +1167,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1206,7 +1181,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1215,32 +1190,28 @@
       <c r="C14" s="8">
         <v>13210</v>
       </c>
-      <c r="D14" s="3">
-        <v>70</v>
-      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="2">
         <f>D14*C14</f>
-        <v>924700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="8">
         <v>13210</v>
       </c>
-      <c r="D15" s="3">
-        <v>10</v>
-      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="2">
         <f>D15*C15</f>
-        <v>132100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1256,7 +1227,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1270,7 +1241,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1286,7 +1257,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
@@ -1300,7 +1271,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1316,7 +1287,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
@@ -1330,39 +1301,41 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
+      <c r="A22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="12">
         <f>SUM(D6:D21)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="13">
         <f>SUM(E6:E21)</f>
-        <v>1258200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="6"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="7">
         <f>E22-E23</f>
-        <v>1258200</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1390,656 +1363,363 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="1" customWidth="1"/>
-    <col min="7" max="20" width="9.33203125" style="19"/>
-    <col min="21" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-    </row>
-    <row r="2" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="15" t="s">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="16">
-        <f ca="1">TODAY()</f>
-        <v>44430</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-    </row>
-    <row r="3" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+    </row>
+    <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-    </row>
-    <row r="4" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="56" t="s">
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8">
+        <v>8490</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2">
+        <f>C6*B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="8">
+        <v>12090</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:D19" si="0">C7*B7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="8">
+        <v>13040</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="8">
+        <v>14540</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8">
+        <v>10320</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8">
+        <v>11200</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8">
+        <v>12240</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="8">
+        <v>13070</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="8">
+        <v>13990</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="8">
+        <v>13540</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="8">
+        <v>14470</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="8">
+        <v>21270</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="21">
-        <v>15200</v>
-      </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-    </row>
-    <row r="5" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="21">
-        <v>1473200</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-    </row>
-    <row r="6" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="14">
-        <f>F4+F5</f>
-        <v>1488400</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-    </row>
-    <row r="7" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="21">
-        <v>546000</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-    </row>
-    <row r="8" spans="1:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="17">
-        <f>F6-F7</f>
-        <v>942400</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-    </row>
-    <row r="9" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-    </row>
-    <row r="10" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-    </row>
-    <row r="11" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-    </row>
-    <row r="12" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-    </row>
-    <row r="13" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-    </row>
-    <row r="14" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-    </row>
-    <row r="15" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-    </row>
-    <row r="16" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-    </row>
-    <row r="17" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-    </row>
-    <row r="18" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-    </row>
-    <row r="19" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-    </row>
-    <row r="20" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-    </row>
-    <row r="21" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-    </row>
-    <row r="22" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-    </row>
-    <row r="23" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-    </row>
-    <row r="24" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-    </row>
-    <row r="25" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-    </row>
-    <row r="26" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-    </row>
-    <row r="27" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-    </row>
-    <row r="28" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-    </row>
-    <row r="29" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-    </row>
-    <row r="30" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-    </row>
-    <row r="31" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="B18" s="8">
+        <v>16810</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="8">
+        <v>25890</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40">
+        <f>SUM(C6:C19)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="45">
+        <f>SUM(D6:D19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="13">
+        <f>SUM(D7:D19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="6">
+        <f>D6*1%</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="7">
+        <f>D21*2%</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="44">
+        <f>D22+D23</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
+  <mergeCells count="9">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="Daily " sheetId="3" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>Advance</t>
-  </si>
-  <si>
     <t>C25s(4/64)</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>Total QTY</t>
+  </si>
+  <si>
+    <t>Previous shortage Value(23-08-2021)</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -588,18 +588,75 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,63 +666,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -675,14 +684,8 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -988,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1005,22 +1008,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1028,20 +1031,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44431</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
+        <v>44432</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1061,7 +1064,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1077,7 +1080,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1091,7 +1094,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="30" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1107,7 +1110,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1121,7 +1124,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1137,7 +1140,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1151,7 +1154,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1167,7 +1170,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1181,8 +1184,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>22</v>
+      <c r="A14" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>18</v>
@@ -1197,7 +1200,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1211,8 +1214,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>23</v>
+      <c r="A16" s="30" t="s">
+        <v>22</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>18</v>
@@ -1227,21 +1230,23 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="8">
         <v>14110</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>30</v>
+      </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>423300</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1257,7 +1262,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
@@ -1271,11 +1276,11 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="8">
         <v>25130</v>
@@ -1287,7 +1292,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
@@ -1301,52 +1306,48 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
+      <c r="A22" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="12">
         <f>SUM(D6:D21)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E22" s="13">
         <f>SUM(E6:E21)</f>
-        <v>0</v>
+        <v>423300</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
+      <c r="A23" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="6">
-        <v>0</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="7">
-        <f>E22-E23</f>
-        <v>0</v>
-      </c>
+        <f>E22+E23</f>
+        <v>432300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C3:E3"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
@@ -1355,6 +1356,13 @@
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1379,43 +1387,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>13</v>
@@ -1439,7 +1447,7 @@
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="8">
         <v>12090</v>
@@ -1452,7 +1460,7 @@
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="8">
         <v>13040</v>
@@ -1465,7 +1473,7 @@
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="8">
         <v>14540</v>
@@ -1517,7 +1525,7 @@
     </row>
     <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="8">
         <v>13070</v>
@@ -1530,7 +1538,7 @@
     </row>
     <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="8">
         <v>13990</v>
@@ -1543,7 +1551,7 @@
     </row>
     <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="8">
         <v>13540</v>
@@ -1556,7 +1564,7 @@
     </row>
     <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="8">
         <v>14470</v>
@@ -1582,7 +1590,7 @@
     </row>
     <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="8">
         <v>16810</v>
@@ -1607,74 +1615,74 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40">
+      <c r="A20" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="15">
         <f>SUM(C6:C19)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="17">
         <f>SUM(D6:D19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
+      <c r="A21" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="A22" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="6">
         <f>D6*1%</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
+      <c r="A23" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="7">
         <f>D21*2%</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44">
+      <c r="A24" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="16">
         <f>D22+D23</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A4:D4"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1685,7 +1693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1700,23 +1708,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="46" t="s">
+      <c r="F1" s="18" t="s">
         <v>38</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -14,14 +14,13 @@
   <sheets>
     <sheet name="Daily " sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>Total=</t>
   </si>
@@ -74,9 +73,6 @@
     <t>Distributor: Realme</t>
   </si>
   <si>
-    <t>Need To Deposit</t>
-  </si>
-  <si>
     <t>Grey</t>
   </si>
   <si>
@@ -128,33 +124,20 @@
     <t>1% Value</t>
   </si>
   <si>
-    <t>Shop Name</t>
-  </si>
-  <si>
-    <t>Incentive Amount</t>
-  </si>
-  <si>
-    <t>Incentive Percentage</t>
-  </si>
-  <si>
-    <t>Retailer Signature</t>
-  </si>
-  <si>
-    <t>Total Value</t>
-  </si>
-  <si>
-    <t>Total QTY</t>
-  </si>
-  <si>
-    <t>Previous shortage Value(23-08-2021)</t>
+    <t>Will be paid in advance</t>
+  </si>
+  <si>
+    <t>Deposit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -220,7 +203,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
@@ -539,10 +522,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -597,8 +581,29 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -626,19 +631,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -649,21 +645,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -684,11 +665,30 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1008,43 +1008,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44432</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+        <v>44434</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1064,7 +1064,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1080,7 +1080,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1094,7 +1094,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1110,7 +1110,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1124,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1140,21 +1140,23 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="8">
         <v>10920</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>109200</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1170,7 +1172,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1184,11 +1186,11 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
-        <v>21</v>
+      <c r="A14" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="8">
         <v>13210</v>
@@ -1200,7 +1202,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1214,23 +1216,25 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
-        <v>22</v>
+      <c r="A16" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="8">
         <v>14110</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>15</v>
+      </c>
       <c r="E16" s="2">
         <f t="shared" ref="E16:E17" si="1">D16*C16</f>
-        <v>0</v>
+        <v>211650</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1238,15 +1242,15 @@
         <v>14110</v>
       </c>
       <c r="D17" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>423300</v>
+        <v>141100</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1262,9 +1266,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="8">
         <v>20640</v>
@@ -1276,11 +1280,11 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="8">
         <v>25130</v>
@@ -1292,7 +1296,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
@@ -1306,48 +1310,55 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
+      <c r="A22" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="12">
         <f>SUM(D6:D21)</f>
-        <v>30</v>
-      </c>
-      <c r="E22" s="13">
+        <v>35</v>
+      </c>
+      <c r="E22" s="50">
         <f>SUM(E6:E21)</f>
-        <v>423300</v>
+        <v>461950</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="6">
-        <v>9000</v>
+      <c r="A23" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="51">
+        <v>1300000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="7">
-        <f>E22+E23</f>
-        <v>432300</v>
+      <c r="A24" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="52">
+        <f>E23-E22</f>
+        <v>838050</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E26" s="47"/>
+      <c r="E26" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
@@ -1356,13 +1367,6 @@
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1373,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1387,43 +1391,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
+        <v>19</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>13</v>
@@ -1447,7 +1451,7 @@
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="8">
         <v>12090</v>
@@ -1460,7 +1464,7 @@
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="8">
         <v>13040</v>
@@ -1473,7 +1477,7 @@
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="8">
         <v>14540</v>
@@ -1525,7 +1529,7 @@
     </row>
     <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="8">
         <v>13070</v>
@@ -1538,7 +1542,7 @@
     </row>
     <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="8">
         <v>13990</v>
@@ -1551,7 +1555,7 @@
     </row>
     <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="8">
         <v>13540</v>
@@ -1564,7 +1568,7 @@
     </row>
     <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="8">
         <v>14470</v>
@@ -1590,7 +1594,7 @@
     </row>
     <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="8">
         <v>16810</v>
@@ -1615,10 +1619,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="42"/>
+      <c r="A20" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="41"/>
       <c r="C20" s="15">
         <f>SUM(C6:C19)</f>
         <v>0</v>
@@ -1629,44 +1633,44 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
+      <c r="A21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6">
         <f>D6*1%</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+      <c r="A23" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="7">
         <f>D21*2%</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
+      <c r="A24" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="16">
         <f>D22+D23</f>
         <v>0</v>
@@ -1674,60 +1678,17 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>Total=</t>
   </si>
@@ -124,10 +124,13 @@
     <t>1% Value</t>
   </si>
   <si>
-    <t>Will be paid in advance</t>
-  </si>
-  <si>
-    <t>Deposit</t>
+    <t>Realme 8(5G)</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>Credit Amount</t>
   </si>
 </sst>
 </file>
@@ -137,7 +140,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -584,106 +587,106 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,15 +994,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
@@ -1008,22 +1011,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1031,20 +1034,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44434</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
+        <v>44436</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1064,7 +1067,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1080,7 +1083,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1089,12 +1092,12 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:E21" si="0">D7*C7</f>
+        <f t="shared" ref="E7:E23" si="0">D7*C7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1110,7 +1113,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1127,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1140,7 +1143,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1148,15 +1151,15 @@
         <v>10920</v>
       </c>
       <c r="D11" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>109200</v>
+        <v>218400</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="33" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1172,7 +1175,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1186,7 +1189,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1202,7 +1205,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1216,7 +1219,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1225,16 +1228,14 @@
       <c r="C16" s="8">
         <v>14110</v>
       </c>
-      <c r="D16" s="3">
-        <v>15</v>
-      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="2">
-        <f t="shared" ref="E16:E17" si="1">D16*C16</f>
-        <v>211650</v>
+        <f t="shared" ref="E16:E19" si="1">D16*C16</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1242,15 +1243,15 @@
         <v>14110</v>
       </c>
       <c r="D17" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>141100</v>
+        <v>282200</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1261,12 +1262,12 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
@@ -1275,98 +1276,133 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="8">
+        <v>20970</v>
+      </c>
+      <c r="D20" s="3">
         <v>10</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>209700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="34"/>
+      <c r="B21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="8">
+        <v>20970</v>
+      </c>
+      <c r="D21" s="3">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>125820</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C22" s="8">
         <v>25130</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="8" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="35"/>
+      <c r="B23" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C23" s="8">
         <v>25130</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="12">
-        <f>SUM(D6:D21)</f>
+      <c r="D23" s="3"/>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="12">
+        <f>SUM(D6:D23)</f>
+        <v>56</v>
+      </c>
+      <c r="E24" s="19">
+        <f>SUM(E6:E23)</f>
+        <v>836120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="50">
-        <f>SUM(E6:E21)</f>
-        <v>461950</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="51">
-        <v>1300000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="52">
-        <f>E23-E22</f>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="20">
         <v>838050</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E26" s="18"/>
+    <row r="26" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="21">
+        <f>E25-E24</f>
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E28" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A24:D24"/>
+  <mergeCells count="16">
+    <mergeCell ref="A26:D26"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1391,36 +1427,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1619,10 +1655,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="41"/>
+      <c r="A20" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="52"/>
       <c r="C20" s="15">
         <f>SUM(C6:C19)</f>
         <v>0</v>
@@ -1633,44 +1669,44 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="6">
         <f>D6*1%</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="7">
         <f>D21*2%</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="16">
         <f>D22+D23</f>
         <v>0</v>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>Total=</t>
   </si>
@@ -127,10 +127,16 @@
     <t>Realme 8(5G)</t>
   </si>
   <si>
-    <t>Advance</t>
-  </si>
-  <si>
-    <t>Credit Amount</t>
+    <t>Need to Deposit =</t>
+  </si>
+  <si>
+    <t>Credit Amount(28-08-2021) =</t>
+  </si>
+  <si>
+    <t>Deposit(29-08-2021)</t>
+  </si>
+  <si>
+    <t>Will be paid in advance(29-08-2021)</t>
   </si>
 </sst>
 </file>
@@ -529,7 +535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -584,16 +590,19 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -623,18 +632,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,21 +645,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -687,6 +672,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -996,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1011,22 +1005,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1034,20 +1028,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44436</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
+        <v>44437</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1067,7 +1061,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1083,7 +1077,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1097,7 +1091,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1113,7 +1107,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1127,7 +1121,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1143,23 +1137,21 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="8">
         <v>10920</v>
       </c>
-      <c r="D11" s="3">
-        <v>20</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>218400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1175,7 +1167,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1189,7 +1181,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1205,7 +1197,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1219,7 +1211,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1235,23 +1227,21 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="8">
         <v>14110</v>
       </c>
-      <c r="D17" s="3">
-        <v>20</v>
-      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>282200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1267,7 +1257,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
@@ -1281,7 +1271,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1290,16 +1280,14 @@
       <c r="C20" s="8">
         <v>20970</v>
       </c>
-      <c r="D20" s="3">
-        <v>10</v>
-      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>209700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
@@ -1307,15 +1295,15 @@
         <v>20970</v>
       </c>
       <c r="D21" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>125820</v>
+        <v>104850</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1331,7 +1319,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="8" t="s">
         <v>5</v>
       </c>
@@ -1345,48 +1333,77 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
+      <c r="A24" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="12">
         <f>SUM(D6:D23)</f>
-        <v>56</v>
-      </c>
-      <c r="E24" s="19">
+        <v>5</v>
+      </c>
+      <c r="E24" s="47">
         <f>SUM(E6:E23)</f>
-        <v>836120</v>
+        <v>104850</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
-        <v>35</v>
+      <c r="A25" s="32" t="s">
+        <v>36</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
-      <c r="E25" s="20">
-        <v>838050</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="21">
-        <f>E25-E24</f>
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E28" s="18"/>
+      <c r="E25" s="48">
+        <v>186800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="47">
+        <f>E24+E25</f>
+        <v>291650</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="48">
+        <v>791650</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47">
+        <f>E27-E26</f>
+        <v>500000</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
@@ -1396,13 +1413,6 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1427,36 +1437,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1655,10 +1665,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="52"/>
+      <c r="A20" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="45"/>
       <c r="C20" s="15">
         <f>SUM(C6:C19)</f>
         <v>0</v>
@@ -1669,44 +1679,44 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="6">
         <f>D6*1%</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="7">
         <f>D21*2%</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="50"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="16">
         <f>D22+D23</f>
         <v>0</v>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>Total=</t>
   </si>
@@ -130,13 +130,7 @@
     <t>Need to Deposit =</t>
   </si>
   <si>
-    <t>Credit Amount(28-08-2021) =</t>
-  </si>
-  <si>
-    <t>Deposit(29-08-2021)</t>
-  </si>
-  <si>
-    <t>Will be paid in advance(29-08-2021)</t>
+    <t>Advance</t>
   </si>
 </sst>
 </file>
@@ -590,49 +584,49 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -668,19 +662,19 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,7 +985,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1005,22 +999,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1028,20 +1022,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44437</v>
+        <v>44439</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="35"/>
       <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1061,7 +1055,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1077,21 +1071,23 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="8">
         <v>8290</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
       <c r="E7" s="2">
         <f t="shared" ref="E7:E23" si="0">D7*C7</f>
-        <v>0</v>
+        <v>82900</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1107,7 +1103,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1121,7 +1117,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1137,21 +1133,23 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="8">
         <v>10920</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>20</v>
+      </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>218400</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1167,7 +1165,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1181,7 +1179,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1197,7 +1195,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1211,7 +1209,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1227,7 +1225,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1241,7 +1239,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1257,7 +1255,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
@@ -1271,7 +1269,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1280,14 +1278,16 @@
       <c r="C20" s="8">
         <v>20970</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3">
+        <v>10</v>
+      </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>209700</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
@@ -1295,15 +1295,15 @@
         <v>20970</v>
       </c>
       <c r="D21" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>104850</v>
+        <v>209700</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1333,68 +1333,61 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
+      <c r="A24" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="12">
         <f>SUM(D6:D23)</f>
-        <v>5</v>
-      </c>
-      <c r="E24" s="47">
+        <v>50</v>
+      </c>
+      <c r="E24" s="18">
         <f>SUM(E6:E23)</f>
-        <v>104850</v>
+        <v>720700</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="48">
-        <v>186800</v>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="19">
+        <v>500000</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47">
-        <f>E24+E25</f>
-        <v>291650</v>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="18">
+        <f>E24-E25</f>
+        <v>220700</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="48">
-        <v>791650</v>
-      </c>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47">
-        <f>E27-E26</f>
-        <v>500000</v>
-      </c>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:E1"/>
@@ -1411,8 +1404,6 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1437,20 +1428,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1461,12 +1452,12 @@
       <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1665,10 +1656,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="45"/>
+      <c r="A20" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="48"/>
       <c r="C20" s="15">
         <f>SUM(C6:C19)</f>
         <v>0</v>
@@ -1679,11 +1670,11 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>Total=</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Advance</t>
+  </si>
+  <si>
+    <t>Narzo 30</t>
   </si>
 </sst>
 </file>
@@ -590,6 +593,12 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -621,12 +630,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -984,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -999,22 +1002,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1022,20 +1025,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44439</v>
+        <v>44440</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="35"/>
       <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1055,7 +1058,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1071,7 +1074,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1087,7 +1090,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1103,7 +1106,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1117,7 +1120,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1126,60 +1129,64 @@
       <c r="C10" s="8">
         <v>10920</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>25</v>
+      </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>273000</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="8">
         <v>10920</v>
       </c>
-      <c r="D11" s="3">
-        <v>20</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>218400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
-        <v>8</v>
+      <c r="A12" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C12" s="8">
-        <v>11940</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>18330</v>
+      </c>
+      <c r="D12" s="3">
+        <v>25</v>
+      </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>458250</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="8">
-        <v>11940</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>18330</v>
+      </c>
+      <c r="D13" s="3">
+        <v>25</v>
+      </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>458250</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1195,7 +1202,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1209,7 +1216,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1225,7 +1232,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1239,7 +1246,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1255,7 +1262,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
@@ -1269,7 +1276,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1278,32 +1285,28 @@
       <c r="C20" s="8">
         <v>20970</v>
       </c>
-      <c r="D20" s="3">
-        <v>10</v>
-      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>209700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="8">
         <v>20970</v>
       </c>
-      <c r="D21" s="3">
-        <v>10</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>209700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1333,59 +1336,61 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
+      <c r="A24" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="12">
         <f>SUM(D6:D23)</f>
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="E24" s="18">
         <f>SUM(E6:E23)</f>
-        <v>720700</v>
+        <v>1272400</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="19">
-        <v>500000</v>
+        <v>82900</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="18">
         <f>E24-E25</f>
-        <v>220700</v>
+        <v>1189500</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A27:D27"/>
@@ -1402,8 +1407,6 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1428,20 +1431,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1452,12 +1455,12 @@
       <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -127,13 +127,13 @@
     <t>Realme 8(5G)</t>
   </si>
   <si>
-    <t>Need to Deposit =</t>
-  </si>
-  <si>
-    <t>Advance</t>
-  </si>
-  <si>
     <t>Narzo 30</t>
+  </si>
+  <si>
+    <t>Deposit (02-09-2021)</t>
+  </si>
+  <si>
+    <t>Will be paid in advance (02-09-2021)</t>
   </si>
 </sst>
 </file>
@@ -593,6 +593,9 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -600,9 +603,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44440</v>
+        <v>44441</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="35"/>
@@ -1058,23 +1058,25 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C6" s="8">
         <v>8290</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
       <c r="E6" s="2">
         <f>D6*C6</f>
-        <v>0</v>
+        <v>82900</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1090,7 +1092,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1106,7 +1108,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1120,7 +1122,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1130,15 +1132,15 @@
         <v>10920</v>
       </c>
       <c r="D10" s="3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>273000</v>
+        <v>109200</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1152,8 +1154,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
-        <v>37</v>
+      <c r="A12" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>18</v>
@@ -1161,16 +1163,14 @@
       <c r="C12" s="8">
         <v>18330</v>
       </c>
-      <c r="D12" s="3">
-        <v>25</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>458250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1178,15 +1178,15 @@
         <v>18330</v>
       </c>
       <c r="D13" s="3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>458250</v>
+        <v>183300</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1202,7 +1202,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1216,7 +1216,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1232,7 +1232,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1246,7 +1246,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1262,7 +1262,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
@@ -1276,7 +1276,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1292,7 +1292,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
@@ -1306,7 +1306,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1336,64 +1336,59 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="A24" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="12">
         <f>SUM(D6:D23)</f>
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="E24" s="18">
         <f>SUM(E6:E23)</f>
-        <v>1272400</v>
+        <v>458300</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="19">
-        <v>82900</v>
+        <v>1458300</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="A26" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="18">
         <f>E24-E25</f>
-        <v>1189500</v>
+        <v>-1000000</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1407,6 +1402,11 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A27:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -130,10 +130,10 @@
     <t>Narzo 30</t>
   </si>
   <si>
-    <t>Deposit (02-09-2021)</t>
-  </si>
-  <si>
-    <t>Will be paid in advance (02-09-2021)</t>
+    <t>Previous Advance(02.09.2021)</t>
+  </si>
+  <si>
+    <t>Will be paid in advance (04-09-2021)</t>
   </si>
 </sst>
 </file>
@@ -596,40 +596,40 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1002,22 +1002,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1025,20 +1025,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44441</v>
+        <v>44443</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="35"/>
       <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1058,7 +1058,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1068,15 +1068,15 @@
         <v>8290</v>
       </c>
       <c r="D6" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2">
         <f>D6*C6</f>
-        <v>82900</v>
+        <v>331600</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1084,15 +1084,15 @@
         <v>8290</v>
       </c>
       <c r="D7" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ref="E7:E23" si="0">D7*C7</f>
-        <v>82900</v>
+        <v>331600</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1108,7 +1108,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1122,7 +1122,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1131,16 +1131,14 @@
       <c r="C10" s="8">
         <v>10920</v>
       </c>
-      <c r="D10" s="3">
-        <v>10</v>
-      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>109200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1154,7 +1152,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="31" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1170,23 +1168,21 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="8">
         <v>18330</v>
       </c>
-      <c r="D13" s="3">
-        <v>10</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>183300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1202,7 +1198,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1216,7 +1212,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1232,7 +1228,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1246,7 +1242,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1262,7 +1258,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
@@ -1276,7 +1272,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1292,7 +1288,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
@@ -1306,7 +1302,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1343,22 +1339,22 @@
       <c r="C24" s="20"/>
       <c r="D24" s="12">
         <f>SUM(D6:D23)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E24" s="18">
         <f>SUM(E6:E23)</f>
-        <v>458300</v>
+        <v>663200</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="19">
-        <v>1458300</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1370,14 +1366,14 @@
       <c r="D26" s="20"/>
       <c r="E26" s="18">
         <f>E24-E25</f>
-        <v>-1000000</v>
+        <v>-336800</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1389,6 +1385,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1405,8 +1403,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A27:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1431,20 +1427,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1455,12 +1451,12 @@
       <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -130,10 +130,10 @@
     <t>Narzo 30</t>
   </si>
   <si>
-    <t>Previous Advance(02.09.2021)</t>
-  </si>
-  <si>
-    <t>Will be paid in advance (04-09-2021)</t>
+    <t>Need to deposit=</t>
+  </si>
+  <si>
+    <t>Previous Advance(04.09.2021)</t>
   </si>
 </sst>
 </file>
@@ -593,6 +593,15 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -621,15 +630,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1002,22 +1002,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1025,20 +1025,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44443</v>
+        <v>44444</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="35"/>
       <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1058,7 +1058,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1068,15 +1068,15 @@
         <v>8290</v>
       </c>
       <c r="D6" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2">
         <f>D6*C6</f>
-        <v>331600</v>
+        <v>248700</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1084,15 +1084,15 @@
         <v>8290</v>
       </c>
       <c r="D7" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ref="E7:E23" si="0">D7*C7</f>
-        <v>331600</v>
+        <v>414500</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1108,7 +1108,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1122,7 +1122,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1138,7 +1138,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1152,7 +1152,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1161,14 +1161,16 @@
       <c r="C12" s="8">
         <v>18330</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>183300</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1182,7 +1184,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1198,7 +1200,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1212,7 +1214,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1228,7 +1230,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1242,7 +1244,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1258,7 +1260,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
@@ -1272,7 +1274,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1288,7 +1290,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
@@ -1302,7 +1304,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1332,59 +1334,61 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
+      <c r="A24" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="12">
         <f>SUM(D6:D23)</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E24" s="18">
         <f>SUM(E6:E23)</f>
-        <v>663200</v>
+        <v>846500</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="19">
+        <v>336800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="19">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="18">
         <f>E24-E25</f>
-        <v>-336800</v>
+        <v>509700</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
@@ -1401,8 +1405,6 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1427,20 +1429,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1451,12 +1453,12 @@
       <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>Total=</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>Need to deposit=</t>
-  </si>
-  <si>
-    <t>Previous Advance(04.09.2021)</t>
   </si>
 </sst>
 </file>
@@ -988,7 +985,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="P19" sqref="P18:P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1025,7 +1022,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44444</v>
+        <v>44451</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="35"/>
@@ -1067,12 +1064,10 @@
       <c r="C6" s="8">
         <v>8290</v>
       </c>
-      <c r="D6" s="3">
-        <v>30</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="2">
         <f>D6*C6</f>
-        <v>248700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1083,12 +1078,10 @@
       <c r="C7" s="8">
         <v>8290</v>
       </c>
-      <c r="D7" s="3">
-        <v>50</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="2">
         <f t="shared" ref="E7:E23" si="0">D7*C7</f>
-        <v>414500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1115,10 +1108,12 @@
       <c r="C9" s="8">
         <v>10070</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>20</v>
+      </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>201400</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1161,12 +1156,10 @@
       <c r="C12" s="8">
         <v>18330</v>
       </c>
-      <c r="D12" s="3">
-        <v>10</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>183300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1207,10 +1200,12 @@
       <c r="C15" s="8">
         <v>13210</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>10</v>
+      </c>
       <c r="E15" s="2">
         <f>D15*C15</f>
-        <v>0</v>
+        <v>132100</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1267,10 +1262,12 @@
       <c r="C19" s="8">
         <v>20640</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <v>20</v>
+      </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>412800</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1341,22 +1338,20 @@
       <c r="C24" s="23"/>
       <c r="D24" s="12">
         <f>SUM(D6:D23)</f>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E24" s="18">
         <f>SUM(E6:E23)</f>
-        <v>846500</v>
+        <v>746300</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
-        <v>37</v>
-      </c>
+      <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="19">
-        <v>336800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1368,7 +1363,7 @@
       <c r="D26" s="23"/>
       <c r="E26" s="18">
         <f>E24-E25</f>
-        <v>509700</v>
+        <v>746300</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1387,11 +1382,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1399,12 +1389,17 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A26:D26"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -590,55 +590,55 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -985,7 +985,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P18:P19"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -999,22 +999,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1022,20 +1022,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44451</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
+        <v>44453</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1055,7 +1055,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1071,7 +1071,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1085,7 +1085,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="30" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1101,7 +1101,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1117,7 +1117,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1133,7 +1133,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1147,7 +1147,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1163,7 +1163,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1177,7 +1177,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1186,14 +1186,16 @@
       <c r="C14" s="8">
         <v>13210</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>20</v>
+      </c>
       <c r="E14" s="2">
         <f>D14*C14</f>
-        <v>0</v>
+        <v>264200</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1209,7 +1211,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="30" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1225,7 +1227,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1239,7 +1241,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1255,7 +1257,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
@@ -1263,15 +1265,15 @@
         <v>20640</v>
       </c>
       <c r="D19" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
-        <v>412800</v>
+        <v>206400</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="30" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1287,7 +1289,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
@@ -1301,7 +1303,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1317,7 +1319,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="8" t="s">
         <v>5</v>
       </c>
@@ -1331,57 +1333,60 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="A24" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="12">
         <f>SUM(D6:D23)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E24" s="18">
         <f>SUM(E6:E23)</f>
-        <v>746300</v>
+        <v>804100</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="18">
         <f>E24-E25</f>
-        <v>746300</v>
+        <v>804100</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A26:D26"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1397,9 +1402,6 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1424,36 +1426,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -590,6 +590,18 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -617,15 +629,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -636,9 +639,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -999,22 +999,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1022,20 +1022,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44453</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+        <v>44455</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1055,7 +1055,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1071,7 +1071,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1085,7 +1085,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1101,7 +1101,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1117,7 +1117,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1133,7 +1133,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1147,7 +1147,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1163,7 +1163,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1177,7 +1177,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1186,32 +1186,28 @@
       <c r="C14" s="8">
         <v>13210</v>
       </c>
-      <c r="D14" s="3">
-        <v>20</v>
-      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="2">
         <f>D14*C14</f>
-        <v>264200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="8">
         <v>13210</v>
       </c>
-      <c r="D15" s="3">
-        <v>10</v>
-      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="2">
         <f>D15*C15</f>
-        <v>132100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1220,14 +1216,16 @@
       <c r="C16" s="8">
         <v>14110</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>10</v>
+      </c>
       <c r="E16" s="2">
         <f t="shared" ref="E16:E19" si="1">D16*C16</f>
-        <v>0</v>
+        <v>141100</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1241,7 +1239,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1257,7 +1255,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
@@ -1265,15 +1263,15 @@
         <v>20640</v>
       </c>
       <c r="D19" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
-        <v>206400</v>
+        <v>412800</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1289,7 +1287,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
@@ -1303,7 +1301,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1319,7 +1317,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="8" t="s">
         <v>5</v>
       </c>
@@ -1333,60 +1331,57 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="A24" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="12">
         <f>SUM(D6:D23)</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E24" s="18">
         <f>SUM(E6:E23)</f>
-        <v>804100</v>
+        <v>755300</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="18">
         <f>E24-E25</f>
-        <v>804100</v>
+        <v>755300</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A26:D26"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1402,6 +1397,9 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1426,36 +1424,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
+    <workbookView minimized="1" xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="Daily " sheetId="3" r:id="rId1"/>
@@ -235,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -480,17 +480,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -520,6 +509,32 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -529,7 +544,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -578,7 +593,7 @@
     <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -590,46 +605,64 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -653,22 +686,25 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -984,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -999,22 +1035,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1022,32 +1058,32 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44455</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
+        <v>44458</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1055,7 +1091,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1071,7 +1107,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1085,7 +1121,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="38" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1094,14 +1130,16 @@
       <c r="C8" s="8">
         <v>10070</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>60</v>
+      </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>604200</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1109,15 +1147,15 @@
         <v>10070</v>
       </c>
       <c r="D9" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>201400</v>
+        <v>100700</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1133,7 +1171,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1147,7 +1185,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="38" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1163,7 +1201,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1177,7 +1215,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1193,7 +1231,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1207,7 +1245,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="38" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1217,15 +1255,15 @@
         <v>14110</v>
       </c>
       <c r="D16" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ref="E16:E19" si="1">D16*C16</f>
-        <v>141100</v>
+        <v>705500</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1239,7 +1277,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1255,23 +1293,21 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="8">
         <v>20640</v>
       </c>
-      <c r="D19" s="3">
-        <v>20</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
-        <v>412800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1287,7 +1323,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
@@ -1301,7 +1337,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="38" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1317,7 +1353,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="8" t="s">
         <v>5</v>
       </c>
@@ -1334,22 +1370,22 @@
       <c r="A24" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="12">
         <f>SUM(D6:D23)</f>
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="E24" s="18">
         <f>SUM(E6:E23)</f>
-        <v>755300</v>
+        <v>1410400</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="19">
         <v>0</v>
       </c>
@@ -1358,30 +1394,35 @@
       <c r="A26" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="18">
         <f>E24-E25</f>
-        <v>755300</v>
+        <v>1410400</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A26:D26"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1395,11 +1436,6 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1424,36 +1460,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1652,10 +1688,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="48"/>
+      <c r="A20" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="55"/>
       <c r="C20" s="15">
         <f>SUM(C6:C19)</f>
         <v>0</v>
@@ -1666,44 +1702,44 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="6">
         <f>D6*1%</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="7">
         <f>D21*2%</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="16">
         <f>D22+D23</f>
         <v>0</v>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="Daily " sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>Total=</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Need to deposit=</t>
+  </si>
+  <si>
+    <t>Eid SMS Campaign Advance</t>
   </si>
 </sst>
 </file>
@@ -608,6 +611,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,12 +666,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1035,22 +1038,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1058,20 +1061,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44458</v>
+        <v>44461</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="41"/>
       <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1091,7 +1094,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1107,7 +1110,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1121,7 +1124,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1131,31 +1134,29 @@
         <v>10070</v>
       </c>
       <c r="D8" s="3">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>604200</v>
+        <v>201400</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8">
         <v>10070</v>
       </c>
-      <c r="D9" s="3">
-        <v>10</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>100700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1171,7 +1172,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1185,7 +1186,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1201,7 +1202,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1215,7 +1216,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1231,7 +1232,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1245,7 +1246,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1255,15 +1256,15 @@
         <v>14110</v>
       </c>
       <c r="D16" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ref="E16:E19" si="1">D16*C16</f>
-        <v>705500</v>
+        <v>141100</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1277,7 +1278,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1293,7 +1294,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
@@ -1307,7 +1308,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1323,7 +1324,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
@@ -1337,7 +1338,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1353,7 +1354,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="8" t="s">
         <v>5</v>
       </c>
@@ -1367,62 +1368,59 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="12">
         <f>SUM(D6:D23)</f>
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="E24" s="18">
         <f>SUM(E6:E23)</f>
-        <v>1410400</v>
+        <v>342500</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
+      <c r="A25" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="19">
-        <v>0</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="18">
         <f>E24-E25</f>
-        <v>1410400</v>
+        <v>340700</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A26:D26"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1436,6 +1434,11 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1460,20 +1463,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1705,8 +1708,8 @@
       <c r="A21" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>Total=</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>Need to deposit=</t>
-  </si>
-  <si>
-    <t>Eid SMS Campaign Advance</t>
   </si>
 </sst>
 </file>
@@ -611,70 +608,70 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1023,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1038,22 +1035,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1061,20 +1058,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44461</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
+        <v>44465</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1094,7 +1091,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1110,7 +1107,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1121,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1133,16 +1130,14 @@
       <c r="C8" s="8">
         <v>10070</v>
       </c>
-      <c r="D8" s="3">
-        <v>20</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>201400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1156,7 +1151,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1172,7 +1167,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1186,7 +1181,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="33" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1202,7 +1197,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1216,7 +1211,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1232,7 +1227,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1246,7 +1241,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1256,15 +1251,15 @@
         <v>14110</v>
       </c>
       <c r="D16" s="3">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ref="E16:E19" si="1">D16*C16</f>
-        <v>141100</v>
+        <v>1128800</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1278,7 +1273,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1294,7 +1289,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
@@ -1308,7 +1303,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="33" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1324,7 +1319,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
@@ -1338,7 +1333,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1354,7 +1349,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="8" t="s">
         <v>5</v>
       </c>
@@ -1368,59 +1363,60 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="12">
         <f>SUM(D6:D23)</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E24" s="18">
         <f>SUM(E6:E23)</f>
-        <v>342500</v>
+        <v>1128800</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="19">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="18">
         <f>E24-E25</f>
-        <v>340700</v>
+        <v>1128800</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
       <c r="E28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A26:D26"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1436,9 +1432,6 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1463,28 +1456,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="51" t="s">
@@ -1708,8 +1701,8 @@
       <c r="A21" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -608,6 +608,21 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,21 +672,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1035,22 +1035,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44465</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
+        <v>44466</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1091,7 +1091,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1107,7 +1107,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1121,7 +1121,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="38" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1137,7 +1137,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1151,7 +1151,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1167,7 +1167,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1181,7 +1181,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="38" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1197,7 +1197,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1211,7 +1211,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1227,7 +1227,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1241,7 +1241,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="38" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1251,15 +1251,15 @@
         <v>14110</v>
       </c>
       <c r="D16" s="3">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ref="E16:E19" si="1">D16*C16</f>
-        <v>1128800</v>
+        <v>282200</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1273,7 +1273,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1289,7 +1289,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
@@ -1303,7 +1303,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1319,7 +1319,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
@@ -1333,7 +1333,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="38" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1349,7 +1349,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="8" t="s">
         <v>5</v>
       </c>
@@ -1363,57 +1363,59 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
+      <c r="A24" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="12">
         <f>SUM(D6:D23)</f>
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E24" s="18">
         <f>SUM(E6:E23)</f>
-        <v>1128800</v>
+        <v>282200</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="18">
         <f>E24-E25</f>
-        <v>1128800</v>
+        <v>282200</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A26:D26"/>
@@ -1430,8 +1432,6 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1456,28 +1456,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="51" t="s">
@@ -1701,8 +1701,8 @@
       <c r="A21" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -608,70 +608,70 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:C47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1035,22 +1035,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44466</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
+        <v>44468</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1091,7 +1091,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1107,7 +1107,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1121,7 +1121,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1137,7 +1137,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1151,7 +1151,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1167,7 +1167,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1181,7 +1181,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="33" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1197,7 +1197,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1211,7 +1211,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1227,7 +1227,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1241,7 +1241,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1250,30 +1250,30 @@
       <c r="C16" s="8">
         <v>14110</v>
       </c>
-      <c r="D16" s="3">
-        <v>20</v>
-      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="2">
         <f t="shared" ref="E16:E19" si="1">D16*C16</f>
-        <v>282200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="8">
         <v>14110</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>20</v>
+      </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>282200</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1289,7 +1289,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
@@ -1303,7 +1303,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="33" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1319,21 +1319,23 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="8">
         <v>20970</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>10</v>
+      </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>209700</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1349,7 +1351,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="8" t="s">
         <v>5</v>
       </c>
@@ -1363,59 +1365,57 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="12">
         <f>SUM(D6:D23)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E24" s="18">
         <f>SUM(E6:E23)</f>
-        <v>282200</v>
+        <v>491900</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="18">
         <f>E24-E25</f>
-        <v>282200</v>
+        <v>491900</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
       <c r="E28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A26:D26"/>
@@ -1432,6 +1432,8 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1456,28 +1458,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="51" t="s">
@@ -1701,8 +1703,8 @@
       <c r="A21" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>Total=</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Need to deposit=</t>
+  </si>
+  <si>
+    <t>C11</t>
   </si>
 </sst>
 </file>
@@ -608,6 +611,21 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,21 +675,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1018,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1035,22 +1038,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1058,20 +1061,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44468</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
+        <v>44472</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1091,7 +1094,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="38" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1107,7 +1110,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1116,49 +1119,51 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:E23" si="0">D7*C7</f>
+        <f t="shared" ref="E7:E25" si="0">D7*C7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
-        <v>4</v>
+      <c r="A8" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="8">
-        <v>10070</v>
+        <v>8310</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E8:E9" si="1">D8*C8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8">
-        <v>10070</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>8310</v>
+      </c>
+      <c r="D9" s="3">
+        <v>30</v>
+      </c>
       <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>249300</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
-        <v>7</v>
+      <c r="A10" s="38" t="s">
+        <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="8">
-        <v>10920</v>
+        <v>10070</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2">
@@ -1167,12 +1172,12 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="8">
-        <v>10920</v>
+        <v>10070</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2">
@@ -1181,14 +1186,14 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
-        <v>35</v>
+      <c r="A12" s="38" t="s">
+        <v>7</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C12" s="8">
-        <v>18330</v>
+        <v>10920</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2">
@@ -1197,12 +1202,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="8">
-        <v>18330</v>
+        <v>10920</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2">
@@ -1211,138 +1216,136 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
-        <v>20</v>
+      <c r="A14" s="38" t="s">
+        <v>35</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="8">
-        <v>13210</v>
+        <v>18330</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2">
-        <f>D14*C14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="8">
-        <v>13210</v>
+        <v>18330</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2">
-        <f>D15*C15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
-        <v>21</v>
+      <c r="A16" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="8">
-        <v>14110</v>
+        <v>13210</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2">
-        <f t="shared" ref="E16:E19" si="1">D16*C16</f>
+        <f>D16*C16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="8">
+        <v>13210</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2">
+        <f>D17*C17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="8">
         <v>14110</v>
-      </c>
-      <c r="D17" s="3">
-        <v>20</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="1"/>
-        <v>282200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="8">
-        <v>20640</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E18:E21" si="2">D18*C18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C19" s="8">
-        <v>20640</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>14110</v>
+      </c>
+      <c r="D19" s="3">
+        <v>10</v>
+      </c>
       <c r="E19" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>141100</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
-        <v>34</v>
+      <c r="A20" s="38" t="s">
+        <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="8">
-        <v>20970</v>
+        <v>20640</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="8" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C21" s="8">
+        <v>20640</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="8">
         <v>20970</v>
-      </c>
-      <c r="D21" s="3">
-        <v>10</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>209700</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="8">
-        <v>25130</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="2">
@@ -1351,12 +1354,12 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" s="8">
-        <v>25130</v>
+        <v>20970</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="2">
@@ -1366,74 +1369,105 @@
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="12">
-        <f>SUM(D6:D23)</f>
-        <v>30</v>
-      </c>
-      <c r="E24" s="18">
-        <f>SUM(E6:E23)</f>
-        <v>491900</v>
+        <v>10</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="8">
+        <v>25130</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="19">
+      <c r="A25" s="39"/>
+      <c r="B25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="8">
+        <v>25130</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="12">
+        <f>SUM(D6:D25)</f>
+        <v>40</v>
+      </c>
+      <c r="E26" s="18">
+        <f>SUM(E6:E25)</f>
+        <v>390400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="18">
-        <f>E24-E25</f>
-        <v>491900</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="19"/>
-    </row>
-    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="18"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="18">
+        <f>E26-E27</f>
+        <v>390400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A27:D27"/>
+  <mergeCells count="19">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A26:D26"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1458,28 +1492,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="51" t="s">
@@ -1703,8 +1737,8 @@
       <c r="A21" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>Total=</t>
   </si>
@@ -88,9 +88,6 @@
     <t>C25s(4/128)</t>
   </si>
   <si>
-    <t>Yellow</t>
-  </si>
-  <si>
     <t>RP</t>
   </si>
   <si>
@@ -134,6 +131,12 @@
   </si>
   <si>
     <t>C11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT </t>
+  </si>
+  <si>
+    <t>Advance(03.10.2021)</t>
   </si>
 </sst>
 </file>
@@ -547,7 +550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -611,10 +614,55 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -624,57 +672,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1021,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1038,22 +1035,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1061,20 +1058,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44472</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
+        <v>44473</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1094,7 +1091,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1110,7 +1107,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1124,8 +1121,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
-        <v>37</v>
+      <c r="A8" s="33" t="s">
+        <v>36</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>5</v>
@@ -1140,7 +1137,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1148,15 +1145,15 @@
         <v>8310</v>
       </c>
       <c r="D9" s="3">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>249300</v>
+        <v>664800</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1172,7 +1169,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1186,7 +1183,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1202,7 +1199,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1216,8 +1213,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
-        <v>35</v>
+      <c r="A14" s="33" t="s">
+        <v>34</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>18</v>
@@ -1232,7 +1229,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1246,7 +1243,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1262,7 +1259,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1276,7 +1273,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1292,23 +1289,21 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="8">
         <v>14110</v>
       </c>
-      <c r="D19" s="3">
-        <v>10</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
-        <v>141100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1324,7 +1319,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -1338,8 +1333,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="38" t="s">
-        <v>34</v>
+      <c r="A22" s="33" t="s">
+        <v>33</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>5</v>
@@ -1354,7 +1349,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="8" t="s">
         <v>6</v>
       </c>
@@ -1368,92 +1363,79 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="38" t="s">
-        <v>10</v>
+      <c r="A24" s="33" t="s">
+        <v>37</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C24" s="8">
-        <v>25130</v>
-      </c>
-      <c r="D24" s="3"/>
+        <v>31210</v>
+      </c>
+      <c r="D24" s="3">
+        <v>35</v>
+      </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1092350</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="8">
-        <v>25130</v>
-      </c>
-      <c r="D25" s="3"/>
+        <v>31210</v>
+      </c>
+      <c r="D25" s="3">
+        <v>20</v>
+      </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>624200</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
+      <c r="A26" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="E26" s="18">
         <f>SUM(E6:E25)</f>
-        <v>390400</v>
+        <v>2381350</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
+      <c r="A27" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="19">
-        <v>0</v>
+        <v>249300</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="25"/>
+      <c r="A28" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="18">
         <f>E26-E27</f>
-        <v>390400</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="19"/>
-    </row>
-    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="18"/>
+        <v>2132050</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
+  <mergeCells count="17">
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1468,6 +1450,9 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1492,43 +1477,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>13</v>
@@ -1552,7 +1537,7 @@
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="8">
         <v>12090</v>
@@ -1565,7 +1550,7 @@
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="8">
         <v>13040</v>
@@ -1578,7 +1563,7 @@
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="8">
         <v>14540</v>
@@ -1630,7 +1615,7 @@
     </row>
     <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="8">
         <v>13070</v>
@@ -1643,7 +1628,7 @@
     </row>
     <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="8">
         <v>13990</v>
@@ -1695,7 +1680,7 @@
     </row>
     <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="8">
         <v>16810</v>
@@ -1720,10 +1705,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="55"/>
+      <c r="A20" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="53"/>
       <c r="C20" s="15">
         <f>SUM(C6:C19)</f>
         <v>0</v>
@@ -1734,44 +1719,44 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="A22" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="6">
         <f>D6*1%</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
+      <c r="A23" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="7">
         <f>D21*2%</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="49"/>
+      <c r="A24" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="16">
         <f>D22+D23</f>
         <v>0</v>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>Total=</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t xml:space="preserve">GT </t>
-  </si>
-  <si>
-    <t>Advance(03.10.2021)</t>
   </si>
 </sst>
 </file>
@@ -614,6 +611,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -663,15 +669,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1035,22 +1032,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1058,20 +1055,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44473</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
+        <v>44474</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1091,7 +1088,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1107,7 +1104,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1121,7 +1118,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="36" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1137,7 +1134,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1145,15 +1142,15 @@
         <v>8310</v>
       </c>
       <c r="D9" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>664800</v>
+        <v>249300</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1169,7 +1166,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1183,7 +1180,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1199,7 +1196,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1213,7 +1210,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1229,7 +1226,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1243,7 +1240,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="36" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1259,7 +1256,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1273,7 +1270,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="36" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1289,7 +1286,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1303,7 +1300,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1319,7 +1316,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -1333,7 +1330,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1349,7 +1346,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="8" t="s">
         <v>6</v>
       </c>
@@ -1363,7 +1360,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="36" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1372,70 +1369,67 @@
       <c r="C24" s="8">
         <v>31210</v>
       </c>
-      <c r="D24" s="3">
-        <v>35</v>
-      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>1092350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="8">
         <v>31210</v>
       </c>
-      <c r="D25" s="3">
-        <v>20</v>
-      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>624200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
+      <c r="A26" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="E26" s="18">
         <f>SUM(E6:E25)</f>
-        <v>2381350</v>
+        <v>249300</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
+      <c r="A27" s="33">
+        <v>0</v>
+      </c>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="19">
-        <v>249300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="18">
         <f>E26-E27</f>
-        <v>2132050</v>
+        <v>249300</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1452,7 +1446,6 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1464,7 +1457,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1477,28 +1470,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
@@ -1722,8 +1715,8 @@
       <c r="A21" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>Total=</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t xml:space="preserve">GT </t>
+  </si>
+  <si>
+    <t>C21Y(4/64)</t>
   </si>
 </sst>
 </file>
@@ -611,6 +614,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -654,12 +663,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1015,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1032,22 +1035,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1055,20 +1058,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44474</v>
+        <v>44479</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="39"/>
       <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1088,7 +1091,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1104,7 +1107,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1113,12 +1116,12 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:E25" si="0">D7*C7</f>
+        <f t="shared" ref="E7:E27" si="0">D7*C7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1134,7 +1137,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1142,15 +1145,15 @@
         <v>8310</v>
       </c>
       <c r="D9" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>249300</v>
+        <v>166200</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1166,7 +1169,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1180,44 +1183,46 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
-        <v>7</v>
+      <c r="A12" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="8">
-        <v>10920</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>11380</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
       <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="E12:E13" si="2">D12*C12</f>
+        <v>113800</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="8">
-        <v>10920</v>
+        <v>11380</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
-        <v>34</v>
+      <c r="A14" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C14" s="8">
-        <v>18330</v>
+        <v>10920</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2">
@@ -1226,12 +1231,12 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="8">
-        <v>18330</v>
+        <v>10920</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2">
@@ -1240,134 +1245,136 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
-        <v>20</v>
+      <c r="A16" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="8">
-        <v>13210</v>
+        <v>18330</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2">
-        <f>D16*C16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="8">
-        <v>13210</v>
+        <v>18330</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2">
-        <f>D17*C17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
-        <v>21</v>
+      <c r="A18" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="8">
-        <v>14110</v>
+        <v>13210</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="2">
-        <f t="shared" ref="E18:E21" si="2">D18*C18</f>
+        <f>D18*C18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="8">
-        <v>14110</v>
+        <v>13210</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2">
-        <f t="shared" si="2"/>
+        <f>D19*C19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
-        <v>9</v>
+      <c r="A20" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C20" s="8">
-        <v>20640</v>
+        <v>14110</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E20:E23" si="3">D20*C20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C21" s="8">
-        <v>20640</v>
-      </c>
-      <c r="D21" s="3"/>
+        <v>14110</v>
+      </c>
+      <c r="D21" s="3">
+        <v>25</v>
+      </c>
       <c r="E21" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>352750</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
-        <v>33</v>
+      <c r="A22" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="8">
-        <v>20970</v>
+        <v>20640</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="8" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C23" s="8">
-        <v>20970</v>
+        <v>20640</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
-        <v>37</v>
+      <c r="A24" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C24" s="8">
-        <v>31210</v>
+        <v>20970</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="2">
@@ -1376,12 +1383,12 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="8">
-        <v>31210</v>
+        <v>20970</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="2">
@@ -1391,59 +1398,90 @@
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="12">
-        <f>SUM(D6:D25)</f>
-        <v>30</v>
-      </c>
-      <c r="E26" s="18">
-        <f>SUM(E6:E25)</f>
-        <v>249300</v>
+        <v>37</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="8">
+        <v>31210</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="33">
-        <v>0</v>
-      </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="19">
+      <c r="A27" s="22"/>
+      <c r="B27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="8">
+        <v>31210</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="12">
+        <f>SUM(D6:D27)</f>
+        <v>55</v>
+      </c>
+      <c r="E28" s="18">
+        <f>SUM(E6:E27)</f>
+        <v>632750</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="35">
+        <v>0</v>
+      </c>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="18">
-        <f>E26-E27</f>
-        <v>249300</v>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="18">
+        <f>E28-E29</f>
+        <v>632750</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A29:D29"/>
     <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
   </mergeCells>
@@ -1470,20 +1508,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1715,8 +1753,8 @@
       <c r="A21" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44479</v>
+        <v>44480</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="39"/>
@@ -1144,12 +1144,10 @@
       <c r="C9" s="8">
         <v>8310</v>
       </c>
-      <c r="D9" s="3">
-        <v>20</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>166200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1193,11 +1191,11 @@
         <v>11380</v>
       </c>
       <c r="D12" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" ref="E12:E13" si="2">D12*C12</f>
-        <v>113800</v>
+        <v>398300</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1328,12 +1326,10 @@
       <c r="C21" s="8">
         <v>14110</v>
       </c>
-      <c r="D21" s="3">
-        <v>25</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="2">
         <f t="shared" si="3"/>
-        <v>352750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1434,11 +1430,11 @@
       <c r="C28" s="25"/>
       <c r="D28" s="12">
         <f>SUM(D6:D27)</f>
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E28" s="18">
         <f>SUM(E6:E27)</f>
-        <v>632750</v>
+        <v>398300</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1461,11 +1457,13 @@
       <c r="D30" s="25"/>
       <c r="E30" s="18">
         <f>E28-E29</f>
-        <v>632750</v>
+        <v>398300</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:A9"/>
@@ -1482,8 +1480,6 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -614,55 +614,55 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1035,22 +1035,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44480</v>
+        <v>44481</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="39"/>
       <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1091,7 +1091,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1107,7 +1107,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1121,7 +1121,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="36" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1137,21 +1137,23 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8">
         <v>8310</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>40</v>
+      </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>332400</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1167,7 +1169,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1181,7 +1183,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="36" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1191,29 +1193,31 @@
         <v>11380</v>
       </c>
       <c r="D12" s="3">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" ref="E12:E13" si="2">D12*C12</f>
-        <v>398300</v>
+        <v>170700</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="8">
         <v>11380</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>15</v>
+      </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>170700</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1229,7 +1233,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1243,7 +1247,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1259,7 +1263,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1273,7 +1277,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="36" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1289,7 +1293,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1303,7 +1307,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="36" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1319,7 +1323,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
@@ -1333,7 +1337,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1349,7 +1353,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="8" t="s">
         <v>18</v>
       </c>
@@ -1363,7 +1367,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1379,7 +1383,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1393,7 +1397,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="36" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -1409,7 +1413,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="8" t="s">
         <v>6</v>
       </c>
@@ -1423,48 +1427,45 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="12">
         <f>SUM(D6:D27)</f>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E28" s="18">
         <f>SUM(E6:E27)</f>
-        <v>398300</v>
+        <v>673800</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="35">
-        <v>0</v>
-      </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
+      <c r="A29" s="33">
+        <v>0</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="18">
         <f>E28-E29</f>
-        <v>398300</v>
+        <v>673800</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A30:D30"/>
@@ -1480,6 +1481,9 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1504,20 +1508,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1749,8 +1753,8 @@
       <c r="A21" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -614,6 +614,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,12 +663,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1035,22 +1035,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44481</v>
+        <v>44482</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="39"/>
       <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1091,7 +1091,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1107,7 +1107,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1121,39 +1121,39 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="8">
         <v>8310</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>30</v>
+      </c>
       <c r="E8" s="2">
         <f t="shared" ref="E8:E9" si="1">D8*C8</f>
-        <v>0</v>
+        <v>249300</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8">
         <v>8310</v>
       </c>
-      <c r="D9" s="3">
-        <v>40</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>332400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1169,7 +1169,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1183,7 +1183,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1192,16 +1192,14 @@
       <c r="C12" s="8">
         <v>11380</v>
       </c>
-      <c r="D12" s="3">
-        <v>15</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="2">
         <f t="shared" ref="E12:E13" si="2">D12*C12</f>
-        <v>170700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1209,15 +1207,15 @@
         <v>11380</v>
       </c>
       <c r="D13" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>170700</v>
+        <v>341400</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1233,7 +1231,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1247,7 +1245,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1263,7 +1261,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1277,7 +1275,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1293,7 +1291,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1307,7 +1305,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1323,21 +1321,23 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="8">
         <v>14110</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>10</v>
+      </c>
       <c r="E21" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>141100</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1346,14 +1346,16 @@
       <c r="C22" s="8">
         <v>20640</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3">
+        <v>10</v>
+      </c>
       <c r="E22" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>206400</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="8" t="s">
         <v>18</v>
       </c>
@@ -1367,7 +1369,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1383,7 +1385,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1397,7 +1399,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -1413,7 +1415,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="8" t="s">
         <v>6</v>
       </c>
@@ -1427,45 +1429,47 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
+      <c r="A28" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="12">
         <f>SUM(D6:D27)</f>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E28" s="18">
         <f>SUM(E6:E27)</f>
-        <v>673800</v>
+        <v>938200</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="33">
-        <v>0</v>
-      </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
+      <c r="A29" s="35">
+        <v>0</v>
+      </c>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="18">
         <f>E28-E29</f>
-        <v>673800</v>
+        <v>938200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A30:D30"/>
@@ -1482,8 +1486,6 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1508,20 +1510,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1753,8 +1755,8 @@
       <c r="A21" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -614,12 +614,57 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -627,51 +672,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1035,22 +1035,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44482</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
+        <v>44483</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1091,7 +1091,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1107,7 +1107,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1121,11 +1121,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C8" s="8">
         <v>8310</v>
@@ -1139,7 +1139,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1153,7 +1153,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1169,7 +1169,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1183,7 +1183,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="33" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1199,7 +1199,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1207,15 +1207,15 @@
         <v>11380</v>
       </c>
       <c r="D13" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>341400</v>
+        <v>170700</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1231,7 +1231,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1245,7 +1245,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="33" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1261,7 +1261,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1275,7 +1275,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1291,7 +1291,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1305,7 +1305,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1321,23 +1321,21 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="8">
         <v>14110</v>
       </c>
-      <c r="D21" s="3">
-        <v>10</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="2">
         <f t="shared" si="3"/>
-        <v>141100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1347,15 +1345,15 @@
         <v>20640</v>
       </c>
       <c r="D22" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="3"/>
-        <v>206400</v>
+        <v>412800</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="8" t="s">
         <v>18</v>
       </c>
@@ -1369,7 +1367,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="33" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1385,7 +1383,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1399,7 +1397,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="33" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -1415,7 +1413,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="8" t="s">
         <v>6</v>
       </c>
@@ -1429,48 +1427,45 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="12">
         <f>SUM(D6:D27)</f>
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E28" s="18">
         <f>SUM(E6:E27)</f>
-        <v>938200</v>
+        <v>832800</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="35">
-        <v>0</v>
-      </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
+      <c r="A29" s="30">
+        <v>0</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="18">
         <f>E28-E29</f>
-        <v>938200</v>
+        <v>832800</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A1:E1"/>
@@ -1486,6 +1481,9 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1510,28 +1508,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
@@ -1755,8 +1753,8 @@
       <c r="A21" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -614,6 +614,21 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -650,12 +665,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -663,15 +672,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1035,22 +1035,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44483</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
+        <v>44486</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1091,7 +1091,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1107,7 +1107,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1121,7 +1121,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1131,15 +1131,15 @@
         <v>8310</v>
       </c>
       <c r="D8" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ref="E8:E9" si="1">D8*C8</f>
-        <v>249300</v>
+        <v>83100</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1153,7 +1153,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1169,7 +1169,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1183,7 +1183,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1199,7 +1199,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1207,15 +1207,15 @@
         <v>11380</v>
       </c>
       <c r="D13" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>170700</v>
+        <v>227600</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1231,7 +1231,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1245,7 +1245,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1261,7 +1261,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1275,7 +1275,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1291,7 +1291,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1305,7 +1305,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1321,7 +1321,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
@@ -1335,7 +1335,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1344,16 +1344,14 @@
       <c r="C22" s="8">
         <v>20640</v>
       </c>
-      <c r="D22" s="3">
-        <v>20</v>
-      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="2">
         <f t="shared" si="3"/>
-        <v>412800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="8" t="s">
         <v>18</v>
       </c>
@@ -1367,7 +1365,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1383,7 +1381,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1397,7 +1395,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -1413,7 +1411,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="8" t="s">
         <v>6</v>
       </c>
@@ -1427,45 +1425,47 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
+      <c r="A28" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="12">
         <f>SUM(D6:D27)</f>
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E28" s="18">
         <f>SUM(E6:E27)</f>
-        <v>832800</v>
+        <v>310700</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="30">
-        <v>0</v>
-      </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
+      <c r="A29" s="35">
+        <v>0</v>
+      </c>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="18">
         <f>E28-E29</f>
-        <v>832800</v>
+        <v>310700</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A1:E1"/>
@@ -1482,8 +1482,6 @@
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1508,28 +1506,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
@@ -1753,8 +1751,8 @@
       <c r="A21" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44486</v>
+        <v>44487</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="39"/>
@@ -1130,12 +1130,10 @@
       <c r="C8" s="8">
         <v>8310</v>
       </c>
-      <c r="D8" s="3">
-        <v>10</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="2">
         <f t="shared" ref="E8:E9" si="1">D8*C8</f>
-        <v>83100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1207,11 +1205,11 @@
         <v>11380</v>
       </c>
       <c r="D13" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>227600</v>
+        <v>569000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1432,11 +1430,11 @@
       <c r="C28" s="25"/>
       <c r="D28" s="12">
         <f>SUM(D6:D27)</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E28" s="18">
         <f>SUM(E6:E27)</f>
-        <v>310700</v>
+        <v>569000</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1459,11 +1457,13 @@
       <c r="D30" s="25"/>
       <c r="E30" s="18">
         <f>E28-E29</f>
-        <v>310700</v>
+        <v>569000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:A9"/>
@@ -1480,8 +1480,6 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>Total=</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Narzo 30</t>
   </si>
   <si>
-    <t>Need to deposit=</t>
-  </si>
-  <si>
     <t>C11</t>
   </si>
   <si>
@@ -137,6 +134,12 @@
   </si>
   <si>
     <t>C21Y(4/64)</t>
+  </si>
+  <si>
+    <t>Deposit(19.10.2021)</t>
+  </si>
+  <si>
+    <t>Will be paid in advance</t>
   </si>
 </sst>
 </file>
@@ -614,55 +617,55 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1021,7 +1024,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1035,22 +1038,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1058,20 +1061,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44487</v>
+        <v>44488</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="39"/>
       <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1091,7 +1094,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1107,7 +1110,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1121,8 +1124,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>36</v>
+      <c r="A8" s="36" t="s">
+        <v>35</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>17</v>
@@ -1137,7 +1140,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1151,7 +1154,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1167,7 +1170,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1181,8 +1184,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>38</v>
+      <c r="A12" s="36" t="s">
+        <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>5</v>
@@ -1197,7 +1200,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1205,15 +1208,15 @@
         <v>11380</v>
       </c>
       <c r="D13" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>569000</v>
+        <v>455200</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1229,7 +1232,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1243,7 +1246,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1259,7 +1262,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1273,7 +1276,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="36" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1289,7 +1292,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1303,7 +1306,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="36" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1319,21 +1322,23 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="8">
         <v>14110</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>10</v>
+      </c>
       <c r="E21" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>141100</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1349,21 +1354,23 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="8">
         <v>20640</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3">
+        <v>10</v>
+      </c>
       <c r="E23" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>206400</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1379,7 +1386,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1393,8 +1400,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>37</v>
+      <c r="A26" s="36" t="s">
+        <v>36</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>17</v>
@@ -1409,7 +1416,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="8" t="s">
         <v>6</v>
       </c>
@@ -1423,48 +1430,45 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="12">
         <f>SUM(D6:D27)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E28" s="18">
         <f>SUM(E6:E27)</f>
-        <v>569000</v>
+        <v>802700</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="35">
-        <v>0</v>
-      </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
+      <c r="A29" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="19">
-        <v>0</v>
+        <v>1502700</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
+      <c r="A30" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="18">
         <f>E28-E29</f>
-        <v>569000</v>
+        <v>-700000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A30:D30"/>
@@ -1480,6 +1484,9 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1504,20 +1511,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1749,8 +1756,8 @@
       <c r="A21" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -136,10 +136,10 @@
     <t>C21Y(4/64)</t>
   </si>
   <si>
-    <t>Deposit(19.10.2021)</t>
-  </si>
-  <si>
     <t>Will be paid in advance</t>
+  </si>
+  <si>
+    <t>Advance(19.10.2021)</t>
   </si>
 </sst>
 </file>
@@ -617,6 +617,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -660,12 +666,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1038,22 +1038,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1061,20 +1061,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44488</v>
+        <v>44489</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="39"/>
       <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1094,7 +1094,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1110,7 +1110,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1124,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1140,7 +1140,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1154,7 +1154,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1170,7 +1170,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1184,7 +1184,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1200,7 +1200,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1208,15 +1208,15 @@
         <v>11380</v>
       </c>
       <c r="D13" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>455200</v>
+        <v>398300</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1232,7 +1232,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1246,7 +1246,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1262,7 +1262,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1276,7 +1276,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1292,7 +1292,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1306,7 +1306,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1322,7 +1322,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
@@ -1330,15 +1330,15 @@
         <v>14110</v>
       </c>
       <c r="D21" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="3"/>
-        <v>141100</v>
+        <v>282200</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1354,23 +1354,21 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="8">
         <v>20640</v>
       </c>
-      <c r="D23" s="3">
-        <v>10</v>
-      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="2">
         <f t="shared" si="3"/>
-        <v>206400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1386,7 +1384,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1400,7 +1398,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -1416,7 +1414,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="8" t="s">
         <v>6</v>
       </c>
@@ -1430,45 +1428,47 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
+      <c r="A28" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="12">
         <f>SUM(D6:D27)</f>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E28" s="18">
         <f>SUM(E6:E27)</f>
-        <v>802700</v>
+        <v>680500</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="19">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="19">
-        <v>1502700</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="18">
         <f>E28-E29</f>
-        <v>-700000</v>
+        <v>-19500</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A30:D30"/>
@@ -1485,8 +1485,6 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1511,20 +1509,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1756,8 +1754,8 @@
       <c r="A21" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -139,7 +139,7 @@
     <t>Will be paid in advance</t>
   </si>
   <si>
-    <t>Advance(19.10.2021)</t>
+    <t>Advance(19.10.2021 Deposit)</t>
   </si>
 </sst>
 </file>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="39"/>
@@ -1208,11 +1208,11 @@
         <v>11380</v>
       </c>
       <c r="D13" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>398300</v>
+        <v>341400</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1330,11 +1330,11 @@
         <v>14110</v>
       </c>
       <c r="D21" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="3"/>
-        <v>282200</v>
+        <v>211650</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1435,11 +1435,11 @@
       <c r="C28" s="25"/>
       <c r="D28" s="12">
         <f>SUM(D6:D27)</f>
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E28" s="18">
         <f>SUM(E6:E27)</f>
-        <v>680500</v>
+        <v>553050</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1450,7 +1450,7 @@
       <c r="C29" s="36"/>
       <c r="D29" s="37"/>
       <c r="E29" s="19">
-        <v>700000</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1462,16 +1462,11 @@
       <c r="D30" s="25"/>
       <c r="E30" s="18">
         <f>E28-E29</f>
-        <v>-19500</v>
+        <v>533550</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1485,6 +1480,11 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -136,10 +136,10 @@
     <t>C21Y(4/64)</t>
   </si>
   <si>
-    <t>Will be paid in advance</t>
-  </si>
-  <si>
-    <t>Advance(19.10.2021 Deposit)</t>
+    <t>Deposit(24.10.2021)</t>
+  </si>
+  <si>
+    <t>Advance(21.10.2021 Deposit)</t>
   </si>
 </sst>
 </file>
@@ -617,12 +617,57 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -630,51 +675,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I7"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1038,22 +1038,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1061,20 +1061,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44490</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
+        <v>44493</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1094,7 +1094,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1110,7 +1110,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1124,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="33" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1140,7 +1140,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1154,7 +1154,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1170,7 +1170,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1184,7 +1184,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="33" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1200,23 +1200,21 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="8">
         <v>11380</v>
       </c>
-      <c r="D13" s="3">
-        <v>30</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>341400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1232,7 +1230,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1246,7 +1244,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="33" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1262,7 +1260,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1276,7 +1274,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1292,7 +1290,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1306,7 +1304,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1322,7 +1320,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
@@ -1330,15 +1328,15 @@
         <v>14110</v>
       </c>
       <c r="D21" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="3"/>
-        <v>211650</v>
+        <v>423300</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1347,14 +1345,16 @@
       <c r="C22" s="8">
         <v>20640</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3">
+        <v>10</v>
+      </c>
       <c r="E22" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>206400</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="8" t="s">
         <v>18</v>
       </c>
@@ -1368,7 +1368,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="33" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1384,7 +1384,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1398,7 +1398,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -1414,7 +1414,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="8" t="s">
         <v>6</v>
       </c>
@@ -1428,45 +1428,47 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="12">
         <f>SUM(D6:D27)</f>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E28" s="18">
         <f>SUM(E6:E27)</f>
-        <v>553050</v>
+        <v>629700</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="19">
-        <v>19500</v>
+        <v>16450</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="18">
         <f>E28-E29</f>
-        <v>533550</v>
+        <v>613250</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1483,8 +1485,6 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1509,28 +1509,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
@@ -1754,8 +1754,8 @@
       <c r="A21" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>Total=</t>
   </si>
@@ -136,10 +136,7 @@
     <t>C21Y(4/64)</t>
   </si>
   <si>
-    <t>Deposit(24.10.2021)</t>
-  </si>
-  <si>
-    <t>Advance(21.10.2021 Deposit)</t>
+    <t>Deposit</t>
   </si>
 </sst>
 </file>
@@ -617,6 +614,21 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,12 +665,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -666,15 +672,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1023,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1038,22 +1035,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1061,20 +1058,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44493</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
+        <v>44496</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1094,7 +1091,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1103,14 +1100,16 @@
       <c r="C6" s="8">
         <v>8290</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
       <c r="E6" s="2">
         <f>D6*C6</f>
-        <v>0</v>
+        <v>82900</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1123,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1140,7 +1139,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1154,7 +1153,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1170,7 +1169,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1184,7 +1183,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1200,7 +1199,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1214,7 +1213,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1230,7 +1229,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1244,7 +1243,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1260,7 +1259,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1274,7 +1273,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1290,7 +1289,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1304,7 +1303,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1320,7 +1319,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
@@ -1328,15 +1327,15 @@
         <v>14110</v>
       </c>
       <c r="D21" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="3"/>
-        <v>423300</v>
+        <v>141100</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1345,16 +1344,14 @@
       <c r="C22" s="8">
         <v>20640</v>
       </c>
-      <c r="D22" s="3">
-        <v>10</v>
-      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="2">
         <f t="shared" si="3"/>
-        <v>206400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="8" t="s">
         <v>18</v>
       </c>
@@ -1368,7 +1365,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1384,7 +1381,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1398,7 +1395,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -1414,7 +1411,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="8" t="s">
         <v>6</v>
       </c>
@@ -1428,45 +1425,47 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
+      <c r="A28" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="12">
         <f>SUM(D6:D27)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E28" s="18">
         <f>SUM(E6:E27)</f>
-        <v>629700</v>
+        <v>224000</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
+      <c r="A29" s="35">
+        <v>0</v>
+      </c>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="19">
-        <v>16450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="18">
         <f>E28-E29</f>
-        <v>613250</v>
+        <v>224000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A1:E1"/>
@@ -1483,8 +1482,6 @@
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1509,28 +1506,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
@@ -1754,8 +1751,8 @@
       <c r="A21" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44496</v>
+        <v>44497</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="39"/>
@@ -1192,10 +1192,12 @@
       <c r="C12" s="8">
         <v>11380</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
       <c r="E12" s="2">
         <f t="shared" ref="E12:E13" si="2">D12*C12</f>
-        <v>0</v>
+        <v>113800</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1206,10 +1208,12 @@
       <c r="C13" s="8">
         <v>11380</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>113800</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1326,12 +1330,10 @@
       <c r="C21" s="8">
         <v>14110</v>
       </c>
-      <c r="D21" s="3">
-        <v>10</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="2">
         <f t="shared" si="3"/>
-        <v>141100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1432,11 +1434,11 @@
       <c r="C28" s="25"/>
       <c r="D28" s="12">
         <f>SUM(D6:D27)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E28" s="18">
         <f>SUM(E6:E27)</f>
-        <v>224000</v>
+        <v>310500</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1459,11 +1461,13 @@
       <c r="D30" s="25"/>
       <c r="E30" s="18">
         <f>E28-E29</f>
-        <v>224000</v>
+        <v>310500</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:A9"/>
@@ -1480,8 +1484,6 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>Total=</t>
   </si>
@@ -136,7 +136,10 @@
     <t>C21Y(4/64)</t>
   </si>
   <si>
-    <t>Deposit</t>
+    <t>Advace(28.10.2021)</t>
+  </si>
+  <si>
+    <t>Will be paid in advance</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1058,7 +1061,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44497</v>
+        <v>44499</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="39"/>
@@ -1100,12 +1103,10 @@
       <c r="C6" s="8">
         <v>8290</v>
       </c>
-      <c r="D6" s="3">
-        <v>10</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="2">
         <f>D6*C6</f>
-        <v>82900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1193,11 +1194,11 @@
         <v>11380</v>
       </c>
       <c r="D12" s="3">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" ref="E12:E13" si="2">D12*C12</f>
-        <v>113800</v>
+        <v>796600</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1208,12 +1209,10 @@
       <c r="C13" s="8">
         <v>11380</v>
       </c>
-      <c r="D13" s="3">
-        <v>10</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>113800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1330,10 +1329,12 @@
       <c r="C21" s="8">
         <v>14110</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>10</v>
+      </c>
       <c r="E21" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>141100</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1434,43 +1435,38 @@
       <c r="C28" s="25"/>
       <c r="D28" s="12">
         <f>SUM(D6:D27)</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E28" s="18">
         <f>SUM(E6:E27)</f>
-        <v>310500</v>
+        <v>937700</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="35">
-        <v>0</v>
+      <c r="A29" s="35" t="s">
+        <v>38</v>
       </c>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
       <c r="D29" s="37"/>
       <c r="E29" s="19">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
       <c r="D30" s="25"/>
       <c r="E30" s="18">
         <f>E28-E29</f>
-        <v>310500</v>
+        <v>-62300</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1484,6 +1480,11 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -139,7 +139,7 @@
     <t>Advace(28.10.2021)</t>
   </si>
   <si>
-    <t>Will be paid in advance</t>
+    <t>Need to deposit</t>
   </si>
 </sst>
 </file>
@@ -617,55 +617,55 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1038,22 +1038,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1061,20 +1061,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44499</v>
+        <v>44500</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="39"/>
       <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1094,7 +1094,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1103,14 +1103,16 @@
       <c r="C6" s="8">
         <v>8290</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>50</v>
+      </c>
       <c r="E6" s="2">
         <f>D6*C6</f>
-        <v>0</v>
+        <v>414500</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1126,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="36" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1140,7 +1142,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1154,7 +1156,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1170,7 +1172,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1184,7 +1186,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="36" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1193,16 +1195,14 @@
       <c r="C12" s="8">
         <v>11380</v>
       </c>
-      <c r="D12" s="3">
-        <v>70</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="2">
         <f t="shared" ref="E12:E13" si="2">D12*C12</f>
-        <v>796600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1216,7 +1216,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1232,7 +1232,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1246,7 +1246,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1262,7 +1262,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1276,7 +1276,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="36" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1292,7 +1292,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1306,7 +1306,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="36" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1322,23 +1322,21 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="8">
         <v>14110</v>
       </c>
-      <c r="D21" s="3">
-        <v>10</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="2">
         <f t="shared" si="3"/>
-        <v>141100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1354,7 +1352,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="8" t="s">
         <v>18</v>
       </c>
@@ -1368,7 +1366,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1384,7 +1382,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1398,7 +1396,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="36" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -1414,7 +1412,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="8" t="s">
         <v>6</v>
       </c>
@@ -1428,45 +1426,47 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="12">
         <f>SUM(D6:D27)</f>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E28" s="18">
         <f>SUM(E6:E27)</f>
-        <v>937700</v>
+        <v>414500</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="19">
-        <v>1000000</v>
+        <v>62300</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="18">
         <f>E28-E29</f>
-        <v>-62300</v>
+        <v>352200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1483,8 +1483,6 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1509,20 +1507,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1754,8 +1752,8 @@
       <c r="A21" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -136,10 +136,10 @@
     <t>C21Y(4/64)</t>
   </si>
   <si>
-    <t>Advace(28.10.2021)</t>
-  </si>
-  <si>
-    <t>Need to deposit</t>
+    <t>Deposit(01-11.2021)</t>
+  </si>
+  <si>
+    <t>Will be paid in advance</t>
   </si>
 </sst>
 </file>
@@ -617,6 +617,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -660,12 +666,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1021,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1038,22 +1038,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1061,20 +1061,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44500</v>
+        <v>44501</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="39"/>
       <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1094,7 +1094,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1104,15 +1104,15 @@
         <v>8290</v>
       </c>
       <c r="D6" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2">
         <f>D6*C6</f>
-        <v>414500</v>
+        <v>248700</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1126,7 +1126,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1142,7 +1142,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1156,7 +1156,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1172,7 +1172,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1186,7 +1186,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1202,21 +1202,23 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="8">
         <v>11380</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>30</v>
+      </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>341400</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1232,7 +1234,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1246,7 +1248,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1261,8 +1263,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
+    <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="22"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1275,8 +1277,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+    <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1291,8 +1293,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
+    <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="22"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1305,8 +1307,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
+    <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1315,14 +1317,16 @@
       <c r="C20" s="8">
         <v>14110</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3">
+        <v>40</v>
+      </c>
       <c r="E20" s="2">
         <f t="shared" ref="E20:E23" si="3">D20*C20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
+        <v>564400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="22"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
@@ -1335,8 +1339,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
+    <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1351,8 +1355,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
+    <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="22"/>
       <c r="B23" s="8" t="s">
         <v>18</v>
       </c>
@@ -1365,8 +1369,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
+    <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1381,8 +1385,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
+    <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="22"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1395,8 +1399,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
+    <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -1411,8 +1415,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
+    <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="22"/>
       <c r="B27" s="8" t="s">
         <v>6</v>
       </c>
@@ -1425,49 +1429,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
+    <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="12">
         <f>SUM(D6:D27)</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E28" s="18">
         <f>SUM(E6:E27)</f>
-        <v>414500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="33" t="s">
+        <v>1154500</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1155100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="19">
-        <v>62300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
+        <v>1155100</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1154500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="18">
         <f>E28-E29</f>
-        <v>352200</v>
+        <v>-600</v>
+      </c>
+      <c r="G30" s="1">
+        <f>G28-G29</f>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1483,6 +1494,9 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1507,20 +1521,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1752,8 +1766,8 @@
       <c r="A21" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>Total=</t>
   </si>
@@ -136,10 +136,7 @@
     <t>C21Y(4/64)</t>
   </si>
   <si>
-    <t>Deposit(01-11.2021)</t>
-  </si>
-  <si>
-    <t>Will be paid in advance</t>
+    <t>Deposit</t>
   </si>
 </sst>
 </file>
@@ -617,12 +614,57 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -630,51 +672,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1021,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1038,22 +1035,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1061,20 +1058,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44501</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
+        <v>44502</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1094,7 +1091,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1103,16 +1100,14 @@
       <c r="C6" s="8">
         <v>8290</v>
       </c>
-      <c r="D6" s="3">
-        <v>30</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="2">
         <f>D6*C6</f>
-        <v>248700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1126,7 +1121,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="33" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1142,7 +1137,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1156,7 +1151,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1172,7 +1167,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1186,7 +1181,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="33" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1202,7 +1197,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1210,15 +1205,15 @@
         <v>11380</v>
       </c>
       <c r="D13" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>341400</v>
+        <v>455200</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1234,7 +1229,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1248,7 +1243,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="33" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1263,8 +1258,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="34"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1277,8 +1272,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1293,8 +1288,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
+    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="34"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1307,8 +1302,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1325,8 +1320,8 @@
         <v>564400</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
+    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="34"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
@@ -1339,8 +1334,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1355,8 +1350,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
+    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="34"/>
       <c r="B23" s="8" t="s">
         <v>18</v>
       </c>
@@ -1369,8 +1364,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
+    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="33" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1385,8 +1380,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
+    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="34"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1399,8 +1394,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -1415,8 +1410,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
+    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="34"/>
       <c r="B27" s="8" t="s">
         <v>6</v>
       </c>
@@ -1429,56 +1424,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
+    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="12">
         <f>SUM(D6:D27)</f>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E28" s="18">
         <f>SUM(E6:E27)</f>
-        <v>1154500</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1155100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
+        <v>1019600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="30"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="19">
-        <v>1155100</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1154500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="18">
         <f>E28-E29</f>
-        <v>-600</v>
-      </c>
-      <c r="G30" s="1">
-        <f>G28-G29</f>
-        <v>600</v>
+        <v>1019600</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1495,8 +1480,6 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1521,28 +1504,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
@@ -1766,8 +1749,8 @@
       <c r="A21" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -614,6 +614,21 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -650,12 +665,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -663,15 +672,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1035,22 +1035,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44502</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
+        <v>44503</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1091,7 +1091,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1107,7 +1107,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1121,7 +1121,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1137,7 +1137,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1151,7 +1151,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1167,7 +1167,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1181,7 +1181,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1197,23 +1197,21 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="8">
         <v>11380</v>
       </c>
-      <c r="D13" s="3">
-        <v>40</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>455200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1222,14 +1220,16 @@
       <c r="C14" s="8">
         <v>10920</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>10</v>
+      </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>109200</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1243,7 +1243,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1259,7 +1259,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1273,7 +1273,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1289,7 +1289,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1303,7 +1303,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1312,30 +1312,30 @@
       <c r="C20" s="8">
         <v>14110</v>
       </c>
-      <c r="D20" s="3">
-        <v>40</v>
-      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="2">
         <f t="shared" ref="E20:E23" si="3">D20*C20</f>
-        <v>564400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="8">
         <v>14110</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>30</v>
+      </c>
       <c r="E21" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>423300</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1351,7 +1351,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="8" t="s">
         <v>18</v>
       </c>
@@ -1365,7 +1365,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1381,7 +1381,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1395,7 +1395,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -1411,7 +1411,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="8" t="s">
         <v>6</v>
       </c>
@@ -1425,43 +1425,47 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
+      <c r="A28" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="12">
         <f>SUM(D6:D27)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E28" s="18">
         <f>SUM(E6:E27)</f>
-        <v>1019600</v>
+        <v>532500</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="18">
         <f>E28-E29</f>
-        <v>1019600</v>
+        <v>532500</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A1:E1"/>
@@ -1476,10 +1480,6 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1504,28 +1504,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
@@ -1749,8 +1749,8 @@
       <c r="A21" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>Total=</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Deposit</t>
+  </si>
+  <si>
+    <t>Advance(03-11-2021)</t>
   </si>
 </sst>
 </file>
@@ -550,7 +553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -711,6 +714,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1018,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1031,7 +1037,9 @@
     <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="6" width="9.33203125" style="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
@@ -1058,7 +1066,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="39"/>
@@ -1116,7 +1124,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:E27" si="0">D7*C7</f>
+        <f t="shared" ref="E7:E25" si="0">D7*C7</f>
         <v>0</v>
       </c>
     </row>
@@ -1204,28 +1212,28 @@
       <c r="C13" s="8">
         <v>11380</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>20</v>
+      </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>227600</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C14" s="8">
-        <v>10920</v>
-      </c>
-      <c r="D14" s="3">
-        <v>10</v>
-      </c>
+        <v>18330</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>109200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1234,7 +1242,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="8">
-        <v>10920</v>
+        <v>18330</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2">
@@ -1244,135 +1252,133 @@
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="8">
-        <v>18330</v>
+        <v>13210</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <f>D16*C16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A17" s="22"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="8">
-        <v>18330</v>
+        <v>13210</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <f>D17*C17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="8">
-        <v>13210</v>
+        <v>14110</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="2">
-        <f>D18*C18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E18:E21" si="3">D18*C18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A19" s="22"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="8">
-        <v>13210</v>
+        <v>14110</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2">
-        <f>D19*C19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C20" s="8">
-        <v>14110</v>
+        <v>20640</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2">
-        <f t="shared" ref="E20:E23" si="3">D20*C20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="22"/>
       <c r="B21" s="8" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C21" s="8">
-        <v>14110</v>
-      </c>
-      <c r="D21" s="3">
-        <v>30</v>
-      </c>
+        <v>20640</v>
+      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="2">
         <f t="shared" si="3"/>
-        <v>423300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="8">
-        <v>20640</v>
+        <v>20970</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="22"/>
       <c r="B23" s="8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C23" s="8">
-        <v>20640</v>
+        <v>20970</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C24" s="8">
-        <v>20970</v>
+        <v>31210</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="2">
@@ -1380,13 +1386,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="8">
-        <v>20970</v>
+        <v>31210</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="2">
@@ -1394,92 +1400,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="8">
-        <v>31210</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
-      <c r="B27" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="8">
-        <v>31210</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="12">
+        <f>SUM(D6:D25)</f>
+        <v>20</v>
+      </c>
+      <c r="E26" s="18">
+        <f>SUM(E6:E25)</f>
+        <v>227600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="19">
+        <v>6780</v>
+      </c>
+      <c r="G27" s="54"/>
+    </row>
+    <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="12">
-        <f>SUM(D6:D27)</f>
-        <v>40</v>
-      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="18">
-        <f>SUM(E6:E27)</f>
-        <v>532500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="18">
-        <f>E28-E29</f>
-        <v>532500</v>
+        <f>E26-E27</f>
+        <v>220820</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A30:D30"/>
+  <mergeCells count="17">
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>Total=</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>Deposit</t>
-  </si>
-  <si>
-    <t>Advance(03-11-2021)</t>
   </si>
 </sst>
 </file>
@@ -617,55 +614,58 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -714,9 +714,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1026,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1043,22 +1040,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1066,20 +1063,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44504</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
+        <v>44507</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1099,7 +1096,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1108,14 +1105,16 @@
       <c r="C6" s="8">
         <v>8290</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
       <c r="E6" s="2">
         <f>D6*C6</f>
-        <v>0</v>
+        <v>82900</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1129,7 +1128,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="37" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1145,7 +1144,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1159,7 +1158,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1175,7 +1174,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1189,7 +1188,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="37" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1198,30 +1197,30 @@
       <c r="C12" s="8">
         <v>11380</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>30</v>
+      </c>
       <c r="E12" s="2">
         <f t="shared" ref="E12:E13" si="2">D12*C12</f>
-        <v>0</v>
+        <v>341400</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="8">
         <v>11380</v>
       </c>
-      <c r="D13" s="3">
-        <v>20</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>227600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="37" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1237,7 +1236,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1251,7 +1250,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1267,7 +1266,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1281,7 +1280,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="37" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1297,21 +1296,23 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="8">
         <v>14110</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <v>60</v>
+      </c>
       <c r="E19" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>846600</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="37" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1327,7 +1328,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -1341,7 +1342,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1357,7 +1358,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="8" t="s">
         <v>6</v>
       </c>
@@ -1371,7 +1372,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="37" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1387,7 +1388,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1401,46 +1402,47 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
+      <c r="A26" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E26" s="18">
         <f>SUM(E6:E25)</f>
-        <v>227600</v>
+        <v>1270900</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
+      <c r="A27" s="34">
+        <v>0</v>
+      </c>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="19">
-        <v>6780</v>
-      </c>
-      <c r="G27" s="54"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="25"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="18">
         <f>E26-E27</f>
-        <v>220820</v>
+        <v>1270900</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1457,7 +1459,6 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1482,36 +1483,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1710,10 +1711,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="53"/>
+      <c r="A20" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="54"/>
       <c r="C20" s="15">
         <f>SUM(C6:C19)</f>
         <v>0</v>
@@ -1724,44 +1725,44 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="6">
         <f>D6*1%</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="7">
         <f>D21*2%</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="16">
         <f>D22+D23</f>
         <v>0</v>
